--- a/ONCHO/Impact Assessments/Guinea Bissau/gw_oncho_202302_prestop_1_site.xlsx
+++ b/ONCHO/Impact Assessments/Guinea Bissau/gw_oncho_202302_prestop_1_site.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\WHO\dsa-forms\ONCHO\Impact Assessments\Guinea Bissau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43ACA273-5733-43BF-BF2A-19384ACE8B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B1EE0E-F88D-499A-97F7-E3BA6385334D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1559" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1819" uniqueCount="243">
   <si>
     <t>type</t>
   </si>
@@ -221,12 +221,6 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>gw_oncho_202302_prestop_1_site</t>
-  </si>
-  <si>
-    <t>(Fev 2023) ONCHO PreStop - 1. Site Form</t>
-  </si>
-  <si>
     <t>c_black_fly </t>
   </si>
   <si>
@@ -759,6 +753,18 @@
   </si>
   <si>
     <t>c_cluster_id2</t>
+  </si>
+  <si>
+    <t>Sele Sele</t>
+  </si>
+  <si>
+    <t>Ga Guiro</t>
+  </si>
+  <si>
+    <t>gw_oncho_202302_prestop_1_site_v1</t>
+  </si>
+  <si>
+    <t>(Fev 2023) ONCHO PreStop - 1. Site Form V1</t>
   </si>
 </sst>
 </file>
@@ -900,7 +906,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -948,12 +954,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1237,7 +1254,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -1275,10 +1292,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G1" s="13" t="s">
         <v>4</v>
@@ -1290,7 +1307,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K1" s="13" t="s">
         <v>7</v>
@@ -1325,10 +1342,10 @@
         <v>16</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G2" s="14"/>
       <c r="H2" s="4" t="s">
@@ -1338,7 +1355,7 @@
         <v>18</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
@@ -1357,11 +1374,11 @@
         <v>21</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="24" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
@@ -1383,11 +1400,11 @@
         <v>23</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="24" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F4" s="14"/>
       <c r="I4" s="14"/>
@@ -1414,7 +1431,7 @@
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="14" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F5" s="14"/>
       <c r="I5" s="14"/>
@@ -1442,7 +1459,7 @@
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
@@ -1453,10 +1470,10 @@
         <v>33</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K6" s="24" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="L6" s="14"/>
       <c r="M6" s="14" t="s">
@@ -1473,19 +1490,19 @@
         <v>45</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C7" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="E7" s="14" t="s">
         <v>233</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>235</v>
       </c>
       <c r="F7" s="14"/>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
       <c r="K7" s="24" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L7" s="14"/>
       <c r="M7" s="14" t="s">
@@ -1500,13 +1517,13 @@
         <v>45</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C8" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>234</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>236</v>
       </c>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
@@ -1517,10 +1534,10 @@
         <v>33</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K8" s="24" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L8" s="14"/>
       <c r="M8" s="14" t="s">
@@ -1542,7 +1559,7 @@
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F9" s="14"/>
       <c r="M9" s="14" t="s">
@@ -1563,10 +1580,10 @@
         <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="M10" s="14" t="s">
         <v>19</v>
@@ -1583,7 +1600,7 @@
         <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M11" s="14" t="s">
         <v>19</v>
@@ -1594,14 +1611,14 @@
         <v>44</v>
       </c>
       <c r="B12" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>63</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>65</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F12" s="14"/>
       <c r="M12" s="14"/>
@@ -1611,14 +1628,14 @@
         <v>45</v>
       </c>
       <c r="B13" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="14" t="s">
         <v>64</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="14" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F13" s="14"/>
       <c r="M13" s="14"/>
@@ -1647,11 +1664,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G285"/>
+  <dimension ref="A1:G289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A258" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD285"/>
+      <pane ySplit="1" topLeftCell="A278" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B293" sqref="B293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1673,7 +1690,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>51</v>
@@ -1696,7 +1713,7 @@
         <v>55</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="10"/>
@@ -1712,7 +1729,7 @@
         <v>56</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="10"/>
@@ -1730,13 +1747,13 @@
         <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="10"/>
@@ -1746,13 +1763,13 @@
         <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="10"/>
@@ -1769,16 +1786,16 @@
         <v>52</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F8" s="10"/>
     </row>
@@ -1787,16 +1804,16 @@
         <v>52</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F9" s="10"/>
     </row>
@@ -1805,16 +1822,16 @@
         <v>52</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F10" s="10"/>
     </row>
@@ -1823,16 +1840,16 @@
         <v>52</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F11" s="10"/>
     </row>
@@ -1841,16 +1858,16 @@
         <v>52</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F12" s="10"/>
     </row>
@@ -1859,16 +1876,16 @@
         <v>52</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F13" s="10"/>
     </row>
@@ -1877,16 +1894,16 @@
         <v>52</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F14" s="10"/>
     </row>
@@ -1895,16 +1912,16 @@
         <v>52</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F15" s="10"/>
     </row>
@@ -1913,16 +1930,16 @@
         <v>52</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F16" s="10"/>
     </row>
@@ -1931,16 +1948,16 @@
         <v>52</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F17" s="10"/>
     </row>
@@ -1949,16 +1966,16 @@
         <v>52</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F18" s="10"/>
     </row>
@@ -1967,16 +1984,16 @@
         <v>52</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F19" s="10"/>
     </row>
@@ -1985,16 +2002,16 @@
         <v>52</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2002,16 +2019,16 @@
         <v>52</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2019,16 +2036,16 @@
         <v>52</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2036,16 +2053,16 @@
         <v>52</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2053,16 +2070,16 @@
         <v>52</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2070,16 +2087,16 @@
         <v>52</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2087,16 +2104,16 @@
         <v>52</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2104,16 +2121,16 @@
         <v>52</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2121,16 +2138,16 @@
         <v>52</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2138,16 +2155,16 @@
         <v>53</v>
       </c>
       <c r="B30" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C30" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D30" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F30" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2155,16 +2172,16 @@
         <v>53</v>
       </c>
       <c r="B31" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C31" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D31" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2172,16 +2189,16 @@
         <v>53</v>
       </c>
       <c r="B32" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C32" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D32" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F32" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2189,16 +2206,16 @@
         <v>53</v>
       </c>
       <c r="B33" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C33" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D33" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F33" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2206,16 +2223,16 @@
         <v>53</v>
       </c>
       <c r="B34" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C34" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D34" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2223,16 +2240,16 @@
         <v>53</v>
       </c>
       <c r="B35" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C35" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D35" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F35" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2240,16 +2257,16 @@
         <v>53</v>
       </c>
       <c r="B36" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="C36" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="D36" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="F36" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2257,16 +2274,16 @@
         <v>53</v>
       </c>
       <c r="B37" t="s">
-        <v>112</v>
+        <v>156</v>
       </c>
       <c r="C37" t="s">
-        <v>112</v>
+        <v>156</v>
       </c>
       <c r="D37" t="s">
-        <v>112</v>
+        <v>156</v>
       </c>
       <c r="F37" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2274,16 +2291,16 @@
         <v>53</v>
       </c>
       <c r="B38" t="s">
-        <v>114</v>
+        <v>160</v>
       </c>
       <c r="C38" t="s">
-        <v>114</v>
+        <v>160</v>
       </c>
       <c r="D38" t="s">
-        <v>114</v>
+        <v>160</v>
       </c>
       <c r="F38" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2291,16 +2308,16 @@
         <v>53</v>
       </c>
       <c r="B39" t="s">
-        <v>115</v>
+        <v>191</v>
       </c>
       <c r="C39" t="s">
-        <v>115</v>
+        <v>191</v>
       </c>
       <c r="D39" t="s">
-        <v>115</v>
+        <v>191</v>
       </c>
       <c r="F39" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2308,16 +2325,16 @@
         <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>121</v>
+        <v>202</v>
       </c>
       <c r="C40" t="s">
-        <v>121</v>
+        <v>202</v>
       </c>
       <c r="D40" t="s">
-        <v>121</v>
+        <v>202</v>
       </c>
       <c r="F40" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2325,16 +2342,16 @@
         <v>53</v>
       </c>
       <c r="B41" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="C41" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D41" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="F41" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2342,16 +2359,16 @@
         <v>53</v>
       </c>
       <c r="B42" t="s">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="C42" t="s">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="D42" t="s">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="F42" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2359,16 +2376,16 @@
         <v>53</v>
       </c>
       <c r="B43" t="s">
-        <v>120</v>
+        <v>158</v>
       </c>
       <c r="C43" t="s">
-        <v>120</v>
+        <v>158</v>
       </c>
       <c r="D43" t="s">
-        <v>120</v>
+        <v>158</v>
       </c>
       <c r="F43" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2376,16 +2393,16 @@
         <v>53</v>
       </c>
       <c r="B44" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C44" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D44" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="F44" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2393,16 +2410,16 @@
         <v>53</v>
       </c>
       <c r="B45" t="s">
-        <v>119</v>
+        <v>181</v>
       </c>
       <c r="C45" t="s">
-        <v>119</v>
+        <v>181</v>
       </c>
       <c r="D45" t="s">
-        <v>119</v>
+        <v>181</v>
       </c>
       <c r="F45" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2410,16 +2427,16 @@
         <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>124</v>
+        <v>182</v>
       </c>
       <c r="C46" t="s">
-        <v>124</v>
+        <v>182</v>
       </c>
       <c r="D46" t="s">
-        <v>124</v>
+        <v>182</v>
       </c>
       <c r="F46" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2427,16 +2444,16 @@
         <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>125</v>
+        <v>183</v>
       </c>
       <c r="C47" t="s">
-        <v>125</v>
+        <v>183</v>
       </c>
       <c r="D47" t="s">
-        <v>125</v>
+        <v>183</v>
       </c>
       <c r="F47" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2444,16 +2461,16 @@
         <v>53</v>
       </c>
       <c r="B48" t="s">
-        <v>129</v>
+        <v>200</v>
       </c>
       <c r="C48" t="s">
-        <v>129</v>
+        <v>200</v>
       </c>
       <c r="D48" t="s">
-        <v>129</v>
+        <v>200</v>
       </c>
       <c r="F48" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2461,16 +2478,16 @@
         <v>53</v>
       </c>
       <c r="B49" t="s">
-        <v>111</v>
+        <v>201</v>
       </c>
       <c r="C49" t="s">
-        <v>111</v>
+        <v>201</v>
       </c>
       <c r="D49" t="s">
-        <v>111</v>
+        <v>201</v>
       </c>
       <c r="F49" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2478,16 +2495,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="C50" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="D50" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="F50" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2495,16 +2512,16 @@
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="C51" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="D51" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="F51" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2512,16 +2529,16 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="C52" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="D52" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="F52" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2529,16 +2546,16 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="C53" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="D53" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="F53" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2546,16 +2563,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="C54" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="D54" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="F54" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2563,16 +2580,16 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="C55" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="D55" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="F55" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2580,16 +2597,16 @@
         <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C56" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="D56" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="F56" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2597,16 +2614,16 @@
         <v>53</v>
       </c>
       <c r="B57" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C57" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D57" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="F57" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2614,16 +2631,16 @@
         <v>53</v>
       </c>
       <c r="B58" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="C58" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="D58" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="F58" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2631,16 +2648,16 @@
         <v>53</v>
       </c>
       <c r="B59" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C59" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D59" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F59" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2648,16 +2665,16 @@
         <v>53</v>
       </c>
       <c r="B60" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C60" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="D60" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="F60" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2665,16 +2682,16 @@
         <v>53</v>
       </c>
       <c r="B61" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="C61" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="D61" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="F61" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2682,16 +2699,16 @@
         <v>53</v>
       </c>
       <c r="B62" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="C62" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="D62" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="F62" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2699,16 +2716,16 @@
         <v>53</v>
       </c>
       <c r="B63" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="C63" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="D63" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="F63" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2716,16 +2733,16 @@
         <v>53</v>
       </c>
       <c r="B64" t="s">
-        <v>91</v>
+        <v>207</v>
       </c>
       <c r="C64" t="s">
-        <v>91</v>
+        <v>207</v>
       </c>
       <c r="D64" t="s">
-        <v>91</v>
+        <v>207</v>
       </c>
       <c r="F64" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2733,16 +2750,16 @@
         <v>53</v>
       </c>
       <c r="B65" t="s">
-        <v>183</v>
+        <v>146</v>
       </c>
       <c r="C65" t="s">
-        <v>183</v>
+        <v>146</v>
       </c>
       <c r="D65" t="s">
-        <v>183</v>
+        <v>146</v>
       </c>
       <c r="F65" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2750,16 +2767,16 @@
         <v>53</v>
       </c>
       <c r="B66" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="C66" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="D66" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="F66" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2767,16 +2784,16 @@
         <v>53</v>
       </c>
       <c r="B67" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="C67" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="D67" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="F67" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2784,16 +2801,16 @@
         <v>53</v>
       </c>
       <c r="B68" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="C68" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="D68" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="F68" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2801,16 +2818,16 @@
         <v>53</v>
       </c>
       <c r="B69" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="C69" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="D69" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="F69" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2818,16 +2835,16 @@
         <v>53</v>
       </c>
       <c r="B70" t="s">
-        <v>131</v>
+        <v>204</v>
       </c>
       <c r="C70" t="s">
-        <v>131</v>
+        <v>204</v>
       </c>
       <c r="D70" t="s">
-        <v>131</v>
+        <v>204</v>
       </c>
       <c r="F70" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2835,16 +2852,16 @@
         <v>53</v>
       </c>
       <c r="B71" t="s">
-        <v>136</v>
+        <v>205</v>
       </c>
       <c r="C71" t="s">
-        <v>136</v>
+        <v>205</v>
       </c>
       <c r="D71" t="s">
-        <v>136</v>
+        <v>205</v>
       </c>
       <c r="F71" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2852,16 +2869,16 @@
         <v>53</v>
       </c>
       <c r="B72" t="s">
-        <v>137</v>
+        <v>206</v>
       </c>
       <c r="C72" t="s">
-        <v>137</v>
+        <v>206</v>
       </c>
       <c r="D72" t="s">
-        <v>137</v>
+        <v>206</v>
       </c>
       <c r="F72" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2869,16 +2886,16 @@
         <v>53</v>
       </c>
       <c r="B73" t="s">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="C73" t="s">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="D73" t="s">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="F73" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2886,16 +2903,16 @@
         <v>53</v>
       </c>
       <c r="B74" t="s">
-        <v>139</v>
+        <v>194</v>
       </c>
       <c r="C74" t="s">
-        <v>139</v>
+        <v>194</v>
       </c>
       <c r="D74" t="s">
-        <v>139</v>
+        <v>194</v>
       </c>
       <c r="F74" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2903,16 +2920,16 @@
         <v>53</v>
       </c>
       <c r="B75" t="s">
-        <v>140</v>
+        <v>193</v>
       </c>
       <c r="C75" t="s">
-        <v>140</v>
+        <v>193</v>
       </c>
       <c r="D75" t="s">
-        <v>140</v>
+        <v>193</v>
       </c>
       <c r="F75" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2920,16 +2937,16 @@
         <v>53</v>
       </c>
       <c r="B76" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="C76" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="D76" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="F76" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2937,16 +2954,16 @@
         <v>53</v>
       </c>
       <c r="B77" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="C77" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="D77" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="F77" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2954,16 +2971,16 @@
         <v>53</v>
       </c>
       <c r="B78" t="s">
-        <v>190</v>
+        <v>113</v>
       </c>
       <c r="C78" t="s">
-        <v>190</v>
+        <v>113</v>
       </c>
       <c r="D78" t="s">
-        <v>190</v>
+        <v>113</v>
       </c>
       <c r="F78" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2971,16 +2988,16 @@
         <v>53</v>
       </c>
       <c r="B79" t="s">
-        <v>191</v>
+        <v>119</v>
       </c>
       <c r="C79" t="s">
-        <v>191</v>
+        <v>119</v>
       </c>
       <c r="D79" t="s">
-        <v>191</v>
+        <v>119</v>
       </c>
       <c r="F79" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2988,16 +3005,16 @@
         <v>53</v>
       </c>
       <c r="B80" t="s">
-        <v>197</v>
+        <v>124</v>
       </c>
       <c r="C80" t="s">
-        <v>197</v>
+        <v>124</v>
       </c>
       <c r="D80" t="s">
-        <v>197</v>
+        <v>124</v>
       </c>
       <c r="F80" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3005,16 +3022,16 @@
         <v>53</v>
       </c>
       <c r="B81" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C81" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D81" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F81" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3022,16 +3039,16 @@
         <v>53</v>
       </c>
       <c r="B82" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C82" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D82" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="F82" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3039,16 +3056,16 @@
         <v>53</v>
       </c>
       <c r="B83" t="s">
-        <v>209</v>
+        <v>140</v>
       </c>
       <c r="C83" t="s">
-        <v>209</v>
+        <v>140</v>
       </c>
       <c r="D83" t="s">
-        <v>209</v>
+        <v>140</v>
       </c>
       <c r="F83" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3056,16 +3073,16 @@
         <v>53</v>
       </c>
       <c r="B84" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C84" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D84" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F84" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3073,16 +3090,16 @@
         <v>53</v>
       </c>
       <c r="B85" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="C85" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="D85" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="F85" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3090,16 +3107,16 @@
         <v>53</v>
       </c>
       <c r="B86" t="s">
-        <v>169</v>
+        <v>104</v>
       </c>
       <c r="C86" t="s">
-        <v>169</v>
+        <v>104</v>
       </c>
       <c r="D86" t="s">
-        <v>169</v>
+        <v>104</v>
       </c>
       <c r="F86" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3107,16 +3124,16 @@
         <v>53</v>
       </c>
       <c r="B87" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="C87" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="D87" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="F87" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3124,16 +3141,16 @@
         <v>53</v>
       </c>
       <c r="B88" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="C88" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="D88" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="F88" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3141,16 +3158,16 @@
         <v>53</v>
       </c>
       <c r="B89" t="s">
-        <v>206</v>
+        <v>169</v>
       </c>
       <c r="C89" t="s">
-        <v>206</v>
+        <v>169</v>
       </c>
       <c r="D89" t="s">
-        <v>206</v>
+        <v>169</v>
       </c>
       <c r="F89" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3158,16 +3175,16 @@
         <v>53</v>
       </c>
       <c r="B90" t="s">
-        <v>207</v>
+        <v>171</v>
       </c>
       <c r="C90" t="s">
-        <v>207</v>
+        <v>171</v>
       </c>
       <c r="D90" t="s">
-        <v>207</v>
+        <v>171</v>
       </c>
       <c r="F90" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3175,16 +3192,16 @@
         <v>53</v>
       </c>
       <c r="B91" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="C91" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="D91" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="F91" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3192,16 +3209,16 @@
         <v>53</v>
       </c>
       <c r="B92" t="s">
-        <v>181</v>
+        <v>239</v>
       </c>
       <c r="C92" t="s">
-        <v>181</v>
+        <v>239</v>
       </c>
       <c r="D92" t="s">
-        <v>181</v>
+        <v>239</v>
       </c>
       <c r="F92" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3209,16 +3226,16 @@
         <v>53</v>
       </c>
       <c r="B93" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C93" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D93" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F93" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3226,16 +3243,16 @@
         <v>53</v>
       </c>
       <c r="B94" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C94" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D94" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F94" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3243,16 +3260,16 @@
         <v>53</v>
       </c>
       <c r="B95" t="s">
-        <v>133</v>
+        <v>203</v>
       </c>
       <c r="C95" t="s">
-        <v>133</v>
+        <v>203</v>
       </c>
       <c r="D95" t="s">
-        <v>133</v>
+        <v>203</v>
       </c>
       <c r="F95" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3260,13 +3277,13 @@
         <v>53</v>
       </c>
       <c r="B96" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C96" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D96" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F96" t="s">
         <v>83</v>
@@ -3277,13 +3294,13 @@
         <v>53</v>
       </c>
       <c r="B97" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="C97" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="D97" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="F97" t="s">
         <v>83</v>
@@ -3294,16 +3311,16 @@
         <v>53</v>
       </c>
       <c r="B98" t="s">
-        <v>147</v>
+        <v>94</v>
       </c>
       <c r="C98" t="s">
-        <v>147</v>
+        <v>94</v>
       </c>
       <c r="D98" t="s">
-        <v>147</v>
+        <v>94</v>
       </c>
       <c r="F98" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3311,16 +3328,16 @@
         <v>53</v>
       </c>
       <c r="B99" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C99" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D99" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F99" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3328,16 +3345,16 @@
         <v>53</v>
       </c>
       <c r="B100" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C100" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D100" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F100" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3345,16 +3362,16 @@
         <v>53</v>
       </c>
       <c r="B101" t="s">
-        <v>161</v>
+        <v>97</v>
       </c>
       <c r="C101" t="s">
-        <v>161</v>
+        <v>97</v>
       </c>
       <c r="D101" t="s">
-        <v>161</v>
+        <v>97</v>
       </c>
       <c r="F101" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3362,16 +3379,16 @@
         <v>53</v>
       </c>
       <c r="B102" t="s">
-        <v>171</v>
+        <v>102</v>
       </c>
       <c r="C102" t="s">
-        <v>171</v>
+        <v>102</v>
       </c>
       <c r="D102" t="s">
-        <v>171</v>
+        <v>102</v>
       </c>
       <c r="F102" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3379,16 +3396,16 @@
         <v>53</v>
       </c>
       <c r="B103" t="s">
-        <v>173</v>
+        <v>101</v>
       </c>
       <c r="C103" t="s">
-        <v>173</v>
+        <v>101</v>
       </c>
       <c r="D103" t="s">
-        <v>173</v>
+        <v>101</v>
       </c>
       <c r="F103" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3396,16 +3413,16 @@
         <v>53</v>
       </c>
       <c r="B104" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="C104" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="D104" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="F104" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3413,16 +3430,16 @@
         <v>53</v>
       </c>
       <c r="B105" t="s">
-        <v>200</v>
+        <v>103</v>
       </c>
       <c r="C105" t="s">
-        <v>200</v>
+        <v>103</v>
       </c>
       <c r="D105" t="s">
-        <v>200</v>
+        <v>103</v>
       </c>
       <c r="F105" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3430,16 +3447,16 @@
         <v>53</v>
       </c>
       <c r="B106" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="C106" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="D106" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="F106" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3447,16 +3464,16 @@
         <v>53</v>
       </c>
       <c r="B107" t="s">
-        <v>205</v>
+        <v>96</v>
       </c>
       <c r="C107" t="s">
-        <v>205</v>
+        <v>96</v>
       </c>
       <c r="D107" t="s">
-        <v>205</v>
+        <v>96</v>
       </c>
       <c r="F107" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3464,16 +3481,16 @@
         <v>53</v>
       </c>
       <c r="B108" t="s">
-        <v>143</v>
+        <v>187</v>
       </c>
       <c r="C108" t="s">
-        <v>143</v>
+        <v>187</v>
       </c>
       <c r="D108" t="s">
-        <v>143</v>
+        <v>187</v>
       </c>
       <c r="F108" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3481,16 +3498,16 @@
         <v>53</v>
       </c>
       <c r="B109" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="C109" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="D109" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="F109" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3498,16 +3515,16 @@
         <v>53</v>
       </c>
       <c r="B110" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="C110" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="D110" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="F110" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3515,16 +3532,16 @@
         <v>53</v>
       </c>
       <c r="B111" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="C111" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="D111" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="F111" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3541,7 +3558,7 @@
         <v>149</v>
       </c>
       <c r="F112" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3549,16 +3566,16 @@
         <v>53</v>
       </c>
       <c r="B113" t="s">
-        <v>99</v>
+        <v>174</v>
       </c>
       <c r="C113" t="s">
-        <v>99</v>
+        <v>174</v>
       </c>
       <c r="D113" t="s">
-        <v>99</v>
+        <v>174</v>
       </c>
       <c r="F113" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3566,16 +3583,16 @@
         <v>53</v>
       </c>
       <c r="B114" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C114" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D114" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="F114" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3583,16 +3600,16 @@
         <v>53</v>
       </c>
       <c r="B115" t="s">
-        <v>103</v>
+        <v>175</v>
       </c>
       <c r="C115" t="s">
-        <v>103</v>
+        <v>175</v>
       </c>
       <c r="D115" t="s">
-        <v>103</v>
+        <v>175</v>
       </c>
       <c r="F115" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3600,16 +3617,16 @@
         <v>53</v>
       </c>
       <c r="B116" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="C116" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="D116" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="F116" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3617,16 +3634,16 @@
         <v>53</v>
       </c>
       <c r="B117" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="C117" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="D117" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="F117" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3634,16 +3651,16 @@
         <v>53</v>
       </c>
       <c r="B118" t="s">
-        <v>188</v>
+        <v>144</v>
       </c>
       <c r="C118" t="s">
-        <v>188</v>
+        <v>144</v>
       </c>
       <c r="D118" t="s">
-        <v>188</v>
+        <v>144</v>
       </c>
       <c r="F118" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3651,16 +3668,16 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>98</v>
+        <v>154</v>
       </c>
       <c r="C119" t="s">
-        <v>98</v>
+        <v>154</v>
       </c>
       <c r="D119" t="s">
-        <v>98</v>
+        <v>154</v>
       </c>
       <c r="F119" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3668,16 +3685,16 @@
         <v>53</v>
       </c>
       <c r="B120" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="C120" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="D120" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="F120" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3685,16 +3702,16 @@
         <v>53</v>
       </c>
       <c r="B121" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="C121" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="D121" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="F121" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3702,13 +3719,13 @@
         <v>53</v>
       </c>
       <c r="B122" t="s">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="C122" t="s">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="D122" t="s">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="F122" t="s">
         <v>82</v>
@@ -3719,16 +3736,16 @@
         <v>53</v>
       </c>
       <c r="B123" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="C123" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="D123" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="F123" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3736,16 +3753,16 @@
         <v>53</v>
       </c>
       <c r="B124" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C124" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D124" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F124" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3753,16 +3770,16 @@
         <v>53</v>
       </c>
       <c r="B125" t="s">
-        <v>95</v>
+        <v>178</v>
       </c>
       <c r="C125" t="s">
-        <v>95</v>
+        <v>178</v>
       </c>
       <c r="D125" t="s">
-        <v>95</v>
+        <v>178</v>
       </c>
       <c r="F125" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3770,16 +3787,16 @@
         <v>53</v>
       </c>
       <c r="B126" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="C126" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="D126" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="F126" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3787,16 +3804,16 @@
         <v>53</v>
       </c>
       <c r="B127" t="s">
-        <v>134</v>
+        <v>196</v>
       </c>
       <c r="C127" t="s">
-        <v>134</v>
+        <v>196</v>
       </c>
       <c r="D127" t="s">
-        <v>134</v>
+        <v>196</v>
       </c>
       <c r="F127" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3804,16 +3821,16 @@
         <v>53</v>
       </c>
       <c r="B128" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="C128" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="D128" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="F128" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3821,16 +3838,16 @@
         <v>53</v>
       </c>
       <c r="B129" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="C129" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="D129" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="F129" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3838,16 +3855,16 @@
         <v>53</v>
       </c>
       <c r="B130" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="C130" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="D130" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="F130" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3855,16 +3872,16 @@
         <v>53</v>
       </c>
       <c r="B131" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="C131" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="D131" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="F131" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3872,16 +3889,16 @@
         <v>53</v>
       </c>
       <c r="B132" t="s">
-        <v>170</v>
+        <v>127</v>
       </c>
       <c r="C132" t="s">
-        <v>170</v>
+        <v>127</v>
       </c>
       <c r="D132" t="s">
-        <v>170</v>
+        <v>127</v>
       </c>
       <c r="F132" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3889,16 +3906,16 @@
         <v>53</v>
       </c>
       <c r="B133" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="C133" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="D133" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="F133" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3906,16 +3923,16 @@
         <v>53</v>
       </c>
       <c r="B134" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C134" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="D134" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="F134" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3923,16 +3940,16 @@
         <v>53</v>
       </c>
       <c r="B135" t="s">
-        <v>175</v>
+        <v>240</v>
       </c>
       <c r="C135" t="s">
-        <v>175</v>
+        <v>240</v>
       </c>
       <c r="D135" t="s">
-        <v>175</v>
+        <v>240</v>
       </c>
       <c r="F135" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3940,16 +3957,16 @@
         <v>53</v>
       </c>
       <c r="B136" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C136" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D136" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F136" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3957,16 +3974,16 @@
         <v>53</v>
       </c>
       <c r="B137" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C137" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="D137" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="F137" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3974,16 +3991,16 @@
         <v>53</v>
       </c>
       <c r="B138" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C138" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D138" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F138" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3991,16 +4008,16 @@
         <v>53</v>
       </c>
       <c r="B139" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="C139" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="D139" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="F139" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -4008,16 +4025,16 @@
         <v>53</v>
       </c>
       <c r="B140" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="C140" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="D140" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="F140" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -4025,16 +4042,16 @@
         <v>53</v>
       </c>
       <c r="B141" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="C141" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="D141" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="F141" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4042,16 +4059,16 @@
         <v>53</v>
       </c>
       <c r="B142" t="s">
-        <v>194</v>
+        <v>92</v>
       </c>
       <c r="C142" t="s">
-        <v>194</v>
+        <v>92</v>
       </c>
       <c r="D142" t="s">
-        <v>194</v>
+        <v>92</v>
       </c>
       <c r="F142" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4059,16 +4076,16 @@
         <v>53</v>
       </c>
       <c r="B143" t="s">
-        <v>199</v>
+        <v>107</v>
       </c>
       <c r="C143" t="s">
-        <v>199</v>
+        <v>107</v>
       </c>
       <c r="D143" t="s">
-        <v>199</v>
+        <v>107</v>
       </c>
       <c r="F143" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4076,16 +4093,16 @@
         <v>53</v>
       </c>
       <c r="B144" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="C144" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="D144" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="F144" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4093,16 +4110,16 @@
         <v>53</v>
       </c>
       <c r="B145" t="s">
-        <v>150</v>
+        <v>111</v>
       </c>
       <c r="C145" t="s">
-        <v>150</v>
+        <v>111</v>
       </c>
       <c r="D145" t="s">
-        <v>150</v>
+        <v>111</v>
       </c>
       <c r="F145" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4110,30 +4127,30 @@
         <v>53</v>
       </c>
       <c r="B146" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="C146" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="D146" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="F146" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" t="s">
         <v>53</v>
       </c>
-      <c r="B147" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="C147" s="16" t="s">
-        <v>210</v>
+      <c r="B147" t="s">
+        <v>120</v>
+      </c>
+      <c r="C147" t="s">
+        <v>120</v>
       </c>
       <c r="D147" t="s">
-        <v>213</v>
+        <v>120</v>
       </c>
       <c r="F147" t="s">
         <v>72</v>
@@ -4143,17 +4160,17 @@
       <c r="A148" t="s">
         <v>53</v>
       </c>
-      <c r="B148" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="C148" s="16" t="s">
-        <v>210</v>
+      <c r="B148" t="s">
+        <v>125</v>
+      </c>
+      <c r="C148" t="s">
+        <v>125</v>
       </c>
       <c r="D148" t="s">
-        <v>213</v>
+        <v>125</v>
       </c>
       <c r="F148" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4161,16 +4178,16 @@
         <v>53</v>
       </c>
       <c r="B149" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D149" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F149" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4178,16 +4195,16 @@
         <v>53</v>
       </c>
       <c r="B150" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D150" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F150" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4195,16 +4212,16 @@
         <v>53</v>
       </c>
       <c r="B151" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D151" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F151" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4212,16 +4229,16 @@
         <v>53</v>
       </c>
       <c r="B152" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D152" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F152" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4229,16 +4246,16 @@
         <v>53</v>
       </c>
       <c r="B153" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D153" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F153" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4246,16 +4263,16 @@
         <v>53</v>
       </c>
       <c r="B154" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D154" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F154" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4263,16 +4280,16 @@
         <v>53</v>
       </c>
       <c r="B155" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D155" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F155" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4280,16 +4297,16 @@
         <v>53</v>
       </c>
       <c r="B156" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D156" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F156" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4297,16 +4314,16 @@
         <v>53</v>
       </c>
       <c r="B157" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D157" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F157" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,16 +4331,16 @@
         <v>53</v>
       </c>
       <c r="B158" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D158" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F158" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4331,16 +4348,16 @@
         <v>53</v>
       </c>
       <c r="B159" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D159" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F159" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4348,16 +4365,16 @@
         <v>53</v>
       </c>
       <c r="B160" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D160" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F160" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4365,16 +4382,16 @@
         <v>53</v>
       </c>
       <c r="B161" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D161" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F161" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4382,16 +4399,16 @@
         <v>53</v>
       </c>
       <c r="B162" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D162" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F162" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4399,16 +4416,16 @@
         <v>53</v>
       </c>
       <c r="B163" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D163" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F163" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4416,16 +4433,16 @@
         <v>53</v>
       </c>
       <c r="B164" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D164" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F164" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4433,16 +4450,16 @@
         <v>53</v>
       </c>
       <c r="B165" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D165" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F165" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4450,16 +4467,16 @@
         <v>53</v>
       </c>
       <c r="B166" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D166" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F166" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4467,50 +4484,50 @@
         <v>53</v>
       </c>
       <c r="B167" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D167" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F167" t="s">
-        <v>86</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" t="s">
+        <v>53</v>
+      </c>
+      <c r="B168" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="C168" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="D168" t="s">
+        <v>211</v>
+      </c>
+      <c r="F168" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" t="s">
-        <v>57</v>
-      </c>
-      <c r="B169">
-        <v>101</v>
-      </c>
-      <c r="C169">
-        <v>101</v>
-      </c>
-      <c r="D169">
-        <v>101</v>
-      </c>
-      <c r="G169" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7">
-      <c r="A170" t="s">
-        <v>57</v>
-      </c>
-      <c r="B170">
-        <v>102</v>
-      </c>
-      <c r="C170">
-        <v>102</v>
-      </c>
-      <c r="D170">
-        <v>102</v>
-      </c>
-      <c r="G170" t="s">
-        <v>101</v>
+        <v>53</v>
+      </c>
+      <c r="B169" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="C169" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="D169" t="s">
+        <v>211</v>
+      </c>
+      <c r="F169" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4518,16 +4535,16 @@
         <v>57</v>
       </c>
       <c r="B171">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C171">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D171">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G171" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -4535,16 +4552,16 @@
         <v>57</v>
       </c>
       <c r="B172">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C172">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D172">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G172" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -4552,16 +4569,16 @@
         <v>57</v>
       </c>
       <c r="B173">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C173">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D173">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G173" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -4569,16 +4586,16 @@
         <v>57</v>
       </c>
       <c r="B174">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C174">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D174">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G174" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -4586,16 +4603,16 @@
         <v>57</v>
       </c>
       <c r="B175">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C175">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D175">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G175" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -4603,16 +4620,16 @@
         <v>57</v>
       </c>
       <c r="B176">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C176">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D176">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G176" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -4620,13 +4637,13 @@
         <v>57</v>
       </c>
       <c r="B177">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C177">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D177">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G177" t="s">
         <v>114</v>
@@ -4637,16 +4654,16 @@
         <v>57</v>
       </c>
       <c r="B178">
+        <v>108</v>
+      </c>
+      <c r="C178">
+        <v>108</v>
+      </c>
+      <c r="D178">
+        <v>108</v>
+      </c>
+      <c r="G178" t="s">
         <v>110</v>
-      </c>
-      <c r="C178">
-        <v>110</v>
-      </c>
-      <c r="D178">
-        <v>110</v>
-      </c>
-      <c r="G178" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -4654,16 +4671,16 @@
         <v>57</v>
       </c>
       <c r="B179">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C179">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D179">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G179" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -4671,16 +4688,16 @@
         <v>57</v>
       </c>
       <c r="B180">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C180">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D180">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G180" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -4688,16 +4705,16 @@
         <v>57</v>
       </c>
       <c r="B181">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C181">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D181">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G181" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -4705,16 +4722,16 @@
         <v>57</v>
       </c>
       <c r="B182">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C182">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D182">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G182" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -4722,16 +4739,16 @@
         <v>57</v>
       </c>
       <c r="B183">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C183">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D183">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G183" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -4739,16 +4756,16 @@
         <v>57</v>
       </c>
       <c r="B184">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C184">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D184">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G184" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -4756,16 +4773,16 @@
         <v>57</v>
       </c>
       <c r="B185">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C185">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D185">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G185" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -4773,16 +4790,16 @@
         <v>57</v>
       </c>
       <c r="B186">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C186">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D186">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G186" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -4790,16 +4807,16 @@
         <v>57</v>
       </c>
       <c r="B187">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C187">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D187">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G187" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -4807,16 +4824,16 @@
         <v>57</v>
       </c>
       <c r="B188">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C188">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D188">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G188" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -4824,16 +4841,16 @@
         <v>57</v>
       </c>
       <c r="B189">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C189">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D189">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G189" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -4841,16 +4858,16 @@
         <v>57</v>
       </c>
       <c r="B190">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C190">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D190">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G190" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -4858,16 +4875,16 @@
         <v>57</v>
       </c>
       <c r="B191">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C191">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D191">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G191" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -4875,16 +4892,16 @@
         <v>57</v>
       </c>
       <c r="B192">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C192">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D192">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G192" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -4892,16 +4909,16 @@
         <v>57</v>
       </c>
       <c r="B193">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C193">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D193">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G193" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -4909,16 +4926,16 @@
         <v>57</v>
       </c>
       <c r="B194">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C194">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D194">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G194" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -4926,16 +4943,16 @@
         <v>57</v>
       </c>
       <c r="B195">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C195">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D195">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G195" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -4943,16 +4960,16 @@
         <v>57</v>
       </c>
       <c r="B196">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C196">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D196">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G196" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -4960,16 +4977,16 @@
         <v>57</v>
       </c>
       <c r="B197">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C197">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D197">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G197" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -4977,16 +4994,16 @@
         <v>57</v>
       </c>
       <c r="B198">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C198">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D198">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G198" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -4994,16 +5011,16 @@
         <v>57</v>
       </c>
       <c r="B199">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C199">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D199">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G199" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -5011,16 +5028,16 @@
         <v>57</v>
       </c>
       <c r="B200">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C200">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D200">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G200" t="s">
-        <v>152</v>
+        <v>191</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -5028,16 +5045,16 @@
         <v>57</v>
       </c>
       <c r="B201">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C201">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D201">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G201" t="s">
-        <v>159</v>
+        <v>202</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -5045,16 +5062,16 @@
         <v>57</v>
       </c>
       <c r="B202">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C202">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D202">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G202" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -5062,16 +5079,16 @@
         <v>57</v>
       </c>
       <c r="B203">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C203">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D203">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G203" t="s">
-        <v>91</v>
+        <v>157</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -5079,16 +5096,16 @@
         <v>57</v>
       </c>
       <c r="B204">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C204">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D204">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G204" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -5096,16 +5113,16 @@
         <v>57</v>
       </c>
       <c r="B205">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C205">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D205">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G205" t="s">
-        <v>184</v>
+        <v>89</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -5113,16 +5130,16 @@
         <v>57</v>
       </c>
       <c r="B206">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C206">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D206">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G206" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -5130,16 +5147,16 @@
         <v>57</v>
       </c>
       <c r="B207">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C207">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D207">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G207" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -5147,16 +5164,16 @@
         <v>57</v>
       </c>
       <c r="B208">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C208">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D208">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G208" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -5164,16 +5181,16 @@
         <v>57</v>
       </c>
       <c r="B209">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C209">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D209">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G209" t="s">
-        <v>131</v>
+        <v>200</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -5181,16 +5198,16 @@
         <v>57</v>
       </c>
       <c r="B210">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C210">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D210">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G210" t="s">
-        <v>136</v>
+        <v>201</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -5198,16 +5215,16 @@
         <v>57</v>
       </c>
       <c r="B211">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C211">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D211">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G211" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -5215,16 +5232,16 @@
         <v>57</v>
       </c>
       <c r="B212">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C212">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D212">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G212" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -5232,16 +5249,16 @@
         <v>57</v>
       </c>
       <c r="B213">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C213">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D213">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G213" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -5249,16 +5266,16 @@
         <v>57</v>
       </c>
       <c r="B214">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C214">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D214">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G214" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -5266,16 +5283,16 @@
         <v>57</v>
       </c>
       <c r="B215">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C215">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D215">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G215" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -5283,16 +5300,16 @@
         <v>57</v>
       </c>
       <c r="B216">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C216">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D216">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G216" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -5300,16 +5317,16 @@
         <v>57</v>
       </c>
       <c r="B217">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C217">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D217">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G217" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -5317,16 +5334,16 @@
         <v>57</v>
       </c>
       <c r="B218">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C218">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D218">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G218" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -5334,16 +5351,16 @@
         <v>57</v>
       </c>
       <c r="B219">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C219">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D219">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G219" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -5351,16 +5368,16 @@
         <v>57</v>
       </c>
       <c r="B220">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C220">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D220">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G220" t="s">
-        <v>130</v>
+        <v>189</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -5368,16 +5385,16 @@
         <v>57</v>
       </c>
       <c r="B221">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C221">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D221">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G221" t="s">
-        <v>141</v>
+        <v>195</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -5385,16 +5402,16 @@
         <v>57</v>
       </c>
       <c r="B222">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C222">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D222">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G222" t="s">
-        <v>209</v>
+        <v>128</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -5402,16 +5419,16 @@
         <v>57</v>
       </c>
       <c r="B223">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C223">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D223">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G223" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -5419,16 +5436,16 @@
         <v>57</v>
       </c>
       <c r="B224">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C224">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D224">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G224" t="s">
-        <v>163</v>
+        <v>207</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -5436,16 +5453,16 @@
         <v>57</v>
       </c>
       <c r="B225">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C225">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D225">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G225" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -5453,16 +5470,16 @@
         <v>57</v>
       </c>
       <c r="B226">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C226">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D226">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G226" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -5470,16 +5487,16 @@
         <v>57</v>
       </c>
       <c r="B227">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C227">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D227">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G227" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -5487,16 +5504,16 @@
         <v>57</v>
       </c>
       <c r="B228">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C228">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D228">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G228" t="s">
-        <v>206</v>
+        <v>176</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -5504,16 +5521,16 @@
         <v>57</v>
       </c>
       <c r="B229">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C229">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D229">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G229" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -5521,16 +5538,16 @@
         <v>57</v>
       </c>
       <c r="B230">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C230">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D230">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G230" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -5538,16 +5555,16 @@
         <v>57</v>
       </c>
       <c r="B231">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C231">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D231">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G231" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -5555,16 +5572,16 @@
         <v>57</v>
       </c>
       <c r="B232">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C232">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D232">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G232" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -5572,16 +5589,16 @@
         <v>57</v>
       </c>
       <c r="B233">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C233">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D233">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G233" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -5589,16 +5606,16 @@
         <v>57</v>
       </c>
       <c r="B234">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C234">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D234">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G234" t="s">
-        <v>133</v>
+        <v>194</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -5606,16 +5623,16 @@
         <v>57</v>
       </c>
       <c r="B235">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C235">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D235">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G235" t="s">
-        <v>142</v>
+        <v>193</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -5623,16 +5640,16 @@
         <v>57</v>
       </c>
       <c r="B236">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C236">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D236">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G236" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -5640,16 +5657,16 @@
         <v>57</v>
       </c>
       <c r="B237">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C237">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D237">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G237" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -5657,16 +5674,16 @@
         <v>57</v>
       </c>
       <c r="B238">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C238">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D238">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G238" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -5674,16 +5691,16 @@
         <v>57</v>
       </c>
       <c r="B239">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C239">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D239">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G239" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -5691,16 +5708,16 @@
         <v>57</v>
       </c>
       <c r="B240">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C240">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D240">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G240" t="s">
-        <v>161</v>
+        <v>104</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -5708,16 +5725,16 @@
         <v>57</v>
       </c>
       <c r="B241">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C241">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D241">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G241" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -5725,16 +5742,16 @@
         <v>57</v>
       </c>
       <c r="B242">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C242">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D242">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G242" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -5742,16 +5759,16 @@
         <v>57</v>
       </c>
       <c r="B243">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C243">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D243">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G243" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -5759,16 +5776,16 @@
         <v>57</v>
       </c>
       <c r="B244">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C244">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D244">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G244" t="s">
-        <v>200</v>
+        <v>171</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -5776,16 +5793,16 @@
         <v>57</v>
       </c>
       <c r="B245">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C245">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D245">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G245" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -5793,16 +5810,16 @@
         <v>57</v>
       </c>
       <c r="B246">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C246">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D246">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G246" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -5810,16 +5827,16 @@
         <v>57</v>
       </c>
       <c r="B247">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C247">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D247">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G247" t="s">
-        <v>143</v>
+        <v>199</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -5827,16 +5844,16 @@
         <v>57</v>
       </c>
       <c r="B248">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C248">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D248">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G248" t="s">
-        <v>167</v>
+        <v>203</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -5844,16 +5861,16 @@
         <v>57</v>
       </c>
       <c r="B249">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C249">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D249">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G249" t="s">
-        <v>96</v>
+        <v>141</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -5861,16 +5878,16 @@
         <v>57</v>
       </c>
       <c r="B250">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C250">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D250">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G250" t="s">
-        <v>107</v>
+        <v>165</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -5878,16 +5895,16 @@
         <v>57</v>
       </c>
       <c r="B251">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C251">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D251">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G251" t="s">
-        <v>149</v>
+        <v>94</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -5895,16 +5912,16 @@
         <v>57</v>
       </c>
       <c r="B252">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C252">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D252">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G252" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -5912,16 +5929,16 @@
         <v>57</v>
       </c>
       <c r="B253">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C253">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D253">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G253" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
     </row>
     <row r="254" spans="1:7">
@@ -5929,16 +5946,16 @@
         <v>57</v>
       </c>
       <c r="B254">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C254">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D254">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G254" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -5946,16 +5963,16 @@
         <v>57</v>
       </c>
       <c r="B255">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C255">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D255">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G255" t="s">
-        <v>168</v>
+        <v>102</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -5963,16 +5980,16 @@
         <v>57</v>
       </c>
       <c r="B256">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C256">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D256">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G256" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -5980,16 +5997,16 @@
         <v>57</v>
       </c>
       <c r="B257">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C257">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D257">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G257" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -5997,16 +6014,16 @@
         <v>57</v>
       </c>
       <c r="B258">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C258">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D258">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G258" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -6014,16 +6031,16 @@
         <v>57</v>
       </c>
       <c r="B259">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C259">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D259">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G259" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="260" spans="1:7">
@@ -6031,16 +6048,16 @@
         <v>57</v>
       </c>
       <c r="B260">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C260">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D260">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G260" t="s">
-        <v>192</v>
+        <v>96</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -6048,16 +6065,16 @@
         <v>57</v>
       </c>
       <c r="B261">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C261">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D261">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G261" t="s">
-        <v>132</v>
+        <v>187</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -6065,16 +6082,16 @@
         <v>57</v>
       </c>
       <c r="B262">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C262">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D262">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G262" t="s">
-        <v>151</v>
+        <v>190</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -6082,16 +6099,16 @@
         <v>57</v>
       </c>
       <c r="B263">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C263">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D263">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G263" t="s">
-        <v>176</v>
+        <v>130</v>
       </c>
     </row>
     <row r="264" spans="1:7">
@@ -6099,16 +6116,16 @@
         <v>57</v>
       </c>
       <c r="B264">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C264">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D264">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G264" t="s">
-        <v>95</v>
+        <v>149</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -6116,16 +6133,16 @@
         <v>57</v>
       </c>
       <c r="B265">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C265">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D265">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G265" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="266" spans="1:7">
@@ -6133,16 +6150,16 @@
         <v>57</v>
       </c>
       <c r="B266">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C266">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D266">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G266" t="s">
-        <v>134</v>
+        <v>93</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -6150,16 +6167,16 @@
         <v>57</v>
       </c>
       <c r="B267">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C267">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D267">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G267" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
     </row>
     <row r="268" spans="1:7">
@@ -6167,16 +6184,16 @@
         <v>57</v>
       </c>
       <c r="B268">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C268">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D268">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G268" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
     </row>
     <row r="269" spans="1:7">
@@ -6184,16 +6201,16 @@
         <v>57</v>
       </c>
       <c r="B269">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C269">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D269">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G269" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
     </row>
     <row r="270" spans="1:7">
@@ -6201,16 +6218,16 @@
         <v>57</v>
       </c>
       <c r="B270">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C270">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D270">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G270" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
     <row r="271" spans="1:7">
@@ -6218,16 +6235,16 @@
         <v>57</v>
       </c>
       <c r="B271">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C271">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D271">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G271" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
     </row>
     <row r="272" spans="1:7">
@@ -6235,16 +6252,16 @@
         <v>57</v>
       </c>
       <c r="B272">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C272">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D272">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G272" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -6252,16 +6269,16 @@
         <v>57</v>
       </c>
       <c r="B273">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C273">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D273">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G273" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -6269,16 +6286,16 @@
         <v>57</v>
       </c>
       <c r="B274">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C274">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D274">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G274" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -6286,16 +6303,16 @@
         <v>57</v>
       </c>
       <c r="B275">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C275">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D275">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G275" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -6303,16 +6320,16 @@
         <v>57</v>
       </c>
       <c r="B276">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C276">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D276">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G276" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="277" spans="1:7">
@@ -6320,16 +6337,16 @@
         <v>57</v>
       </c>
       <c r="B277">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C277">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D277">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G277" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
     </row>
     <row r="278" spans="1:7">
@@ -6337,16 +6354,16 @@
         <v>57</v>
       </c>
       <c r="B278">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C278">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D278">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G278" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -6354,16 +6371,16 @@
         <v>57</v>
       </c>
       <c r="B279">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C279">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D279">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G279" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
     </row>
     <row r="280" spans="1:7">
@@ -6371,16 +6388,16 @@
         <v>57</v>
       </c>
       <c r="B280">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C280">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D280">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G280" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
     </row>
     <row r="281" spans="1:7">
@@ -6388,16 +6405,16 @@
         <v>57</v>
       </c>
       <c r="B281">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C281">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D281">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G281" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
     </row>
     <row r="282" spans="1:7">
@@ -6405,16 +6422,16 @@
         <v>57</v>
       </c>
       <c r="B282">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C282">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D282">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G282" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
     </row>
     <row r="283" spans="1:7">
@@ -6422,16 +6439,16 @@
         <v>57</v>
       </c>
       <c r="B283">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C283">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D283">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G283" t="s">
-        <v>145</v>
+        <v>192</v>
       </c>
     </row>
     <row r="284" spans="1:7">
@@ -6439,16 +6456,16 @@
         <v>57</v>
       </c>
       <c r="B284">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C284">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D284">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G284" t="s">
-        <v>150</v>
+        <v>197</v>
       </c>
     </row>
     <row r="285" spans="1:7">
@@ -6456,16 +6473,84 @@
         <v>57</v>
       </c>
       <c r="B285">
+        <v>215</v>
+      </c>
+      <c r="C285">
+        <v>215</v>
+      </c>
+      <c r="D285">
+        <v>215</v>
+      </c>
+      <c r="G285" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7">
+      <c r="A286" t="s">
+        <v>57</v>
+      </c>
+      <c r="B286">
+        <v>216</v>
+      </c>
+      <c r="C286">
+        <v>216</v>
+      </c>
+      <c r="D286">
+        <v>216</v>
+      </c>
+      <c r="G286" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
+      <c r="A287" t="s">
+        <v>57</v>
+      </c>
+      <c r="B287">
         <v>217</v>
       </c>
-      <c r="C285">
+      <c r="C287">
         <v>217</v>
       </c>
-      <c r="D285">
+      <c r="D287">
         <v>217</v>
       </c>
-      <c r="G285" t="s">
-        <v>94</v>
+      <c r="G287" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
+      <c r="A288" t="s">
+        <v>57</v>
+      </c>
+      <c r="B288">
+        <v>217</v>
+      </c>
+      <c r="C288">
+        <v>217</v>
+      </c>
+      <c r="D288">
+        <v>217</v>
+      </c>
+      <c r="G288" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7">
+      <c r="A289" t="s">
+        <v>57</v>
+      </c>
+      <c r="B289">
+        <v>217</v>
+      </c>
+      <c r="C289">
+        <v>217</v>
+      </c>
+      <c r="D289">
+        <v>217</v>
+      </c>
+      <c r="G289" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -6481,7 +6566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -6502,18 +6587,18 @@
         <v>60</v>
       </c>
       <c r="D1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="23" t="s">
-        <v>62</v>
+        <v>242</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>241</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>19</v>
@@ -6527,11 +6612,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B1:J118"/>
+  <dimension ref="B1:M120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D118"/>
+      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
@@ -6542,1811 +6627,2561 @@
     <col min="7" max="7" width="9.375" customWidth="1"/>
     <col min="9" max="9" width="9.375" customWidth="1"/>
     <col min="10" max="10" width="13.875" customWidth="1"/>
+    <col min="12" max="12" width="13.875" customWidth="1"/>
+    <col min="13" max="13" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" s="18" customFormat="1">
+    <row r="1" spans="2:13" s="18" customFormat="1">
       <c r="B1" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="E1" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13">
+      <c r="B2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="J1" s="19" t="s">
+      <c r="C2" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="2" spans="2:10">
-      <c r="B2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E2">
         <v>101</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10">
+        <v>70</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13">
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E3">
         <v>102</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10">
+        <v>75</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13">
       <c r="B4" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E4">
         <v>103</v>
       </c>
       <c r="G4" s="2"/>
       <c r="I4" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10">
+        <v>74</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
       <c r="B5" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E5">
         <v>104</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10">
+        <v>76</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
       <c r="B6" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E6">
         <v>105</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10">
+        <v>71</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
       <c r="B7" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E7">
         <v>106</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="8" spans="2:10">
-      <c r="B8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E8">
         <v>107</v>
       </c>
       <c r="I8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="L8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="9" spans="2:10">
-      <c r="B9" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E9">
         <v>108</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10">
+        <v>88</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13">
       <c r="B10" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E10">
         <v>109</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L10" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="11" spans="2:10">
+      <c r="M10" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13">
       <c r="B11" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E11">
         <v>110</v>
       </c>
       <c r="I11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10">
+      <c r="L11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13">
       <c r="B12" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E12">
         <v>111</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10">
+        <v>78</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13">
       <c r="B13" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E13">
         <v>112</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10">
+        <v>91</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13">
       <c r="B14" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E14">
         <v>113</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10">
+        <v>81</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13">
       <c r="B15" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E15">
         <v>114</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
+        <v>83</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13">
       <c r="B16" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E16">
         <v>115</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10">
+        <v>77</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13">
       <c r="B17" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E17">
         <v>116</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10">
+        <v>80</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13">
       <c r="B18" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E18">
         <v>117</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10">
+        <v>85</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13">
       <c r="B19" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E19">
         <v>118</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10">
+        <v>90</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13">
       <c r="B20" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E20">
         <v>119</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10">
+        <v>82</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13">
       <c r="B21" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E21">
         <v>120</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10">
+        <v>87</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13">
       <c r="B22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="D22" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E22">
         <v>121</v>
       </c>
       <c r="I22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L22" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10">
+      <c r="M22" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13">
       <c r="B23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="D23" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E23">
         <v>122</v>
       </c>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="2:10">
+      <c r="L23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13">
       <c r="B24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="D24" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E24">
         <v>123</v>
       </c>
-    </row>
-    <row r="25" spans="2:10">
+      <c r="L24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13">
       <c r="B25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="D25" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E25">
         <v>124</v>
       </c>
-    </row>
-    <row r="26" spans="2:10">
+      <c r="L25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13">
       <c r="B26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="D26" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E26">
         <v>125</v>
       </c>
-    </row>
-    <row r="27" spans="2:10">
+      <c r="L26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13">
       <c r="B27" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="D27" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E27">
         <v>126</v>
       </c>
-    </row>
-    <row r="28" spans="2:10">
+      <c r="L27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13">
       <c r="B28" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E28">
         <v>127</v>
       </c>
-    </row>
-    <row r="29" spans="2:10">
+      <c r="L28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13">
       <c r="B29" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E29">
         <v>128</v>
       </c>
-    </row>
-    <row r="30" spans="2:10">
+      <c r="L29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13">
       <c r="B30" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E30">
         <v>129</v>
       </c>
-    </row>
-    <row r="31" spans="2:10">
+      <c r="L30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13">
       <c r="B31" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E31">
         <v>130</v>
       </c>
-    </row>
-    <row r="32" spans="2:10">
+      <c r="L31" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13">
       <c r="B32" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E32">
         <v>131</v>
       </c>
-    </row>
-    <row r="33" spans="2:5">
+      <c r="L32" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13">
       <c r="B33" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E33">
         <v>132</v>
       </c>
-    </row>
-    <row r="34" spans="2:5">
+      <c r="L33" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13">
       <c r="B34" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E34">
         <v>133</v>
       </c>
-    </row>
-    <row r="35" spans="2:5">
+      <c r="L34" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13">
       <c r="B35" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E35">
         <v>134</v>
       </c>
-    </row>
-    <row r="36" spans="2:5">
+      <c r="L35" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13">
       <c r="B36" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E36">
         <v>135</v>
       </c>
-    </row>
-    <row r="37" spans="2:5">
+      <c r="L36" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="M36" s="21" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13">
       <c r="B37" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E37">
         <v>136</v>
       </c>
-    </row>
-    <row r="38" spans="2:5">
+      <c r="L37" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13">
       <c r="B38" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E38">
         <v>137</v>
       </c>
-    </row>
-    <row r="39" spans="2:5">
+      <c r="L38" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13">
       <c r="B39" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E39">
         <v>138</v>
       </c>
-    </row>
-    <row r="40" spans="2:5">
+      <c r="L39" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13">
       <c r="B40" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E40">
         <v>139</v>
       </c>
-    </row>
-    <row r="41" spans="2:5">
+      <c r="L40" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13">
       <c r="B41" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E41">
         <v>140</v>
       </c>
-    </row>
-    <row r="42" spans="2:5">
+      <c r="L41" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13">
       <c r="B42" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="D42" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E42">
         <v>141</v>
       </c>
-    </row>
-    <row r="43" spans="2:5">
+      <c r="L42" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13">
       <c r="B43" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="D43" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E43">
         <v>142</v>
       </c>
-    </row>
-    <row r="44" spans="2:5">
+      <c r="L43" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13">
       <c r="B44" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="D44" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E44">
         <v>143</v>
       </c>
-    </row>
-    <row r="45" spans="2:5">
+      <c r="L44" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13">
       <c r="B45" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="D45" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E45">
         <v>144</v>
       </c>
-    </row>
-    <row r="46" spans="2:5">
+      <c r="L45" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13">
       <c r="B46" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="D46" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E46">
         <v>145</v>
       </c>
-    </row>
-    <row r="47" spans="2:5">
+      <c r="L46" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13">
       <c r="B47" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="D47" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E47">
         <v>146</v>
       </c>
-    </row>
-    <row r="48" spans="2:5">
+      <c r="L47" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13">
       <c r="B48" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="D48" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E48">
         <v>147</v>
       </c>
-    </row>
-    <row r="49" spans="2:5">
+      <c r="L48" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13">
       <c r="B49" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="D49" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E49">
         <v>148</v>
       </c>
-    </row>
-    <row r="50" spans="2:5">
+      <c r="L49" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13">
       <c r="B50" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="D50" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E50">
         <v>149</v>
       </c>
-    </row>
-    <row r="51" spans="2:5">
+      <c r="L50" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13">
       <c r="B51" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="D51" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E51">
         <v>150</v>
       </c>
-    </row>
-    <row r="52" spans="2:5">
+      <c r="L51" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13">
       <c r="B52" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="D52" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E52">
         <v>151</v>
       </c>
-    </row>
-    <row r="53" spans="2:5">
+      <c r="L52" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13">
       <c r="B53" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E53">
         <v>152</v>
       </c>
-    </row>
-    <row r="54" spans="2:5">
+      <c r="L53" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13">
       <c r="B54" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E54">
         <v>153</v>
       </c>
-    </row>
-    <row r="55" spans="2:5">
+      <c r="L54" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13">
       <c r="B55" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D55" s="21" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E55">
         <v>154</v>
       </c>
-    </row>
-    <row r="56" spans="2:5">
+      <c r="L55" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13">
       <c r="B56" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E56">
         <v>155</v>
       </c>
-    </row>
-    <row r="57" spans="2:5">
+      <c r="L56" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13">
       <c r="B57" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E57">
         <v>156</v>
       </c>
-    </row>
-    <row r="58" spans="2:5">
+      <c r="L57" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13">
       <c r="B58" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E58">
         <v>157</v>
       </c>
-    </row>
-    <row r="59" spans="2:5">
+      <c r="L58" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13">
       <c r="B59" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E59">
         <v>158</v>
       </c>
-    </row>
-    <row r="60" spans="2:5">
+      <c r="L59" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13">
       <c r="B60" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E60">
         <v>159</v>
       </c>
-    </row>
-    <row r="61" spans="2:5">
+      <c r="L60" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13">
       <c r="B61" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E61">
         <v>160</v>
       </c>
-    </row>
-    <row r="62" spans="2:5">
+      <c r="L61" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13">
       <c r="B62" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E62">
         <v>161</v>
       </c>
-    </row>
-    <row r="63" spans="2:5">
+      <c r="L62" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M62" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13">
       <c r="B63" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E63">
         <v>162</v>
       </c>
-    </row>
-    <row r="64" spans="2:5">
+      <c r="L63" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13">
       <c r="B64" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E64">
         <v>163</v>
       </c>
-    </row>
-    <row r="65" spans="2:5">
+      <c r="L64" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13">
       <c r="B65" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E65">
         <v>164</v>
       </c>
-    </row>
-    <row r="66" spans="2:5">
+      <c r="L65" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M65" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13">
       <c r="B66" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E66">
         <v>165</v>
       </c>
-    </row>
-    <row r="67" spans="2:5">
+      <c r="L66" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M66" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13">
       <c r="B67" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E67">
         <v>166</v>
       </c>
-    </row>
-    <row r="68" spans="2:5">
+      <c r="L67" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M67" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="68" spans="2:13">
       <c r="B68" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E68">
         <v>167</v>
       </c>
-    </row>
-    <row r="69" spans="2:5">
+      <c r="L68" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M68" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13">
       <c r="B69" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E69">
         <v>168</v>
       </c>
-    </row>
-    <row r="70" spans="2:5">
+      <c r="L69" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M69" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13">
       <c r="B70" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E70">
         <v>169</v>
       </c>
-    </row>
-    <row r="71" spans="2:5">
+      <c r="L70" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M70" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13">
       <c r="B71" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E71">
         <v>170</v>
       </c>
-    </row>
-    <row r="72" spans="2:5">
+      <c r="L71" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M71" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13">
       <c r="B72" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E72">
         <v>171</v>
       </c>
-    </row>
-    <row r="73" spans="2:5">
+      <c r="L72" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M72" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13">
       <c r="B73" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E73">
         <v>172</v>
       </c>
-    </row>
-    <row r="74" spans="2:5">
+      <c r="L73" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M73" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13">
       <c r="B74" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E74">
         <v>173</v>
       </c>
-    </row>
-    <row r="75" spans="2:5">
+      <c r="L74" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M74" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13">
       <c r="B75" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E75">
         <v>174</v>
       </c>
-    </row>
-    <row r="76" spans="2:5">
+      <c r="L75" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M75" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13">
       <c r="B76" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E76">
         <v>175</v>
       </c>
-    </row>
-    <row r="77" spans="2:5">
+      <c r="L76" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M76" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13">
       <c r="B77" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E77">
         <v>176</v>
       </c>
-    </row>
-    <row r="78" spans="2:5">
+      <c r="L77" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M77" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="78" spans="2:13">
       <c r="B78" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E78">
         <v>177</v>
       </c>
-    </row>
-    <row r="79" spans="2:5">
+      <c r="L78" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M78" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13">
       <c r="B79" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E79">
         <v>178</v>
       </c>
-    </row>
-    <row r="80" spans="2:5">
+      <c r="L79" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M79" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="80" spans="2:13">
       <c r="B80" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E80">
         <v>179</v>
       </c>
-    </row>
-    <row r="81" spans="2:5">
+      <c r="L80" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="81" spans="2:13">
       <c r="B81" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E81">
         <v>180</v>
       </c>
-    </row>
-    <row r="82" spans="2:5">
+      <c r="L81" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M81" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="82" spans="2:13">
       <c r="B82" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E82">
         <v>181</v>
       </c>
-    </row>
-    <row r="83" spans="2:5">
+      <c r="L82" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M82" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="83" spans="2:13">
       <c r="B83" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E83">
         <v>182</v>
       </c>
-    </row>
-    <row r="84" spans="2:5">
+      <c r="L83" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="M83" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="84" spans="2:13">
       <c r="B84" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E84">
         <v>183</v>
       </c>
-    </row>
-    <row r="85" spans="2:5">
+      <c r="L84" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M84" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="85" spans="2:13">
       <c r="B85" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E85">
         <v>184</v>
       </c>
-    </row>
-    <row r="86" spans="2:5">
+      <c r="L85" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M85" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="86" spans="2:13">
       <c r="B86" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E86">
         <v>185</v>
       </c>
-    </row>
-    <row r="87" spans="2:5">
+      <c r="L86" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M86" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="87" spans="2:13">
       <c r="B87" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E87">
         <v>186</v>
       </c>
-    </row>
-    <row r="88" spans="2:5">
+      <c r="L87" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M87" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="88" spans="2:13">
       <c r="B88" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E88">
         <v>187</v>
       </c>
-    </row>
-    <row r="89" spans="2:5">
+      <c r="L88" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M88" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="89" spans="2:13">
       <c r="B89" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E89">
         <v>188</v>
       </c>
-    </row>
-    <row r="90" spans="2:5">
+      <c r="L89" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M89" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="90" spans="2:13">
       <c r="B90" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E90">
         <v>189</v>
       </c>
-    </row>
-    <row r="91" spans="2:5">
+      <c r="L90" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M90" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="91" spans="2:13">
       <c r="B91" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E91">
         <v>190</v>
       </c>
-    </row>
-    <row r="92" spans="2:5">
+      <c r="L91" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M91" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="92" spans="2:13">
       <c r="B92" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E92">
         <v>191</v>
       </c>
-    </row>
-    <row r="93" spans="2:5">
+      <c r="L92" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M92" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="93" spans="2:13">
       <c r="B93" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E93">
         <v>192</v>
       </c>
-    </row>
-    <row r="94" spans="2:5">
+      <c r="L93" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M93" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="94" spans="2:13">
       <c r="B94" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E94">
         <v>193</v>
       </c>
-    </row>
-    <row r="95" spans="2:5">
+      <c r="L94" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M94" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="95" spans="2:13">
       <c r="B95" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E95">
         <v>194</v>
       </c>
-    </row>
-    <row r="96" spans="2:5">
+      <c r="L95" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M95" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="96" spans="2:13">
       <c r="B96" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E96">
         <v>195</v>
       </c>
-    </row>
-    <row r="97" spans="2:5">
+      <c r="L96" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M96" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="97" spans="2:13">
       <c r="B97" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E97">
         <v>196</v>
       </c>
-    </row>
-    <row r="98" spans="2:5">
+      <c r="L97" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M97" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="98" spans="2:13">
       <c r="B98" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E98">
         <v>197</v>
       </c>
-    </row>
-    <row r="99" spans="2:5">
+      <c r="L98" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M98" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="99" spans="2:13">
       <c r="B99" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E99">
         <v>198</v>
       </c>
-    </row>
-    <row r="100" spans="2:5">
+      <c r="L99" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M99" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="100" spans="2:13">
       <c r="B100" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E100">
         <v>199</v>
       </c>
-    </row>
-    <row r="101" spans="2:5">
+      <c r="L100" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M100" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="101" spans="2:13">
       <c r="B101" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E101">
         <v>200</v>
       </c>
-    </row>
-    <row r="102" spans="2:5">
+      <c r="L101" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M101" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="102" spans="2:13">
       <c r="B102" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E102">
         <v>201</v>
       </c>
-    </row>
-    <row r="103" spans="2:5">
+      <c r="L102" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M102" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="103" spans="2:13">
       <c r="B103" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E103">
         <v>202</v>
       </c>
-    </row>
-    <row r="104" spans="2:5">
+      <c r="L103" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M103" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="104" spans="2:13">
       <c r="B104" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E104">
         <v>203</v>
       </c>
-    </row>
-    <row r="105" spans="2:5">
+      <c r="L104" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M104" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="105" spans="2:13">
       <c r="B105" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E105">
         <v>204</v>
       </c>
-    </row>
-    <row r="106" spans="2:5">
+      <c r="L105" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M105" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="106" spans="2:13">
       <c r="B106" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E106">
         <v>205</v>
       </c>
-    </row>
-    <row r="107" spans="2:5">
+      <c r="L106" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M106" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="107" spans="2:13">
       <c r="B107" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E107">
         <v>206</v>
       </c>
-    </row>
-    <row r="108" spans="2:5">
+      <c r="L107" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M107" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="108" spans="2:13">
       <c r="B108" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E108">
         <v>207</v>
       </c>
-    </row>
-    <row r="109" spans="2:5">
+      <c r="L108" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M108" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="109" spans="2:13">
       <c r="B109" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E109">
         <v>208</v>
       </c>
-    </row>
-    <row r="110" spans="2:5">
+      <c r="L109" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M109" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="110" spans="2:13">
       <c r="B110" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E110">
         <v>209</v>
       </c>
-    </row>
-    <row r="111" spans="2:5">
+      <c r="L110" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M110" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="111" spans="2:13">
       <c r="B111" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E111">
         <v>210</v>
       </c>
-    </row>
-    <row r="112" spans="2:5">
+      <c r="L111" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M111" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" spans="2:13">
       <c r="B112" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E112">
         <v>211</v>
       </c>
-    </row>
-    <row r="113" spans="2:5">
+      <c r="L112" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M112" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="113" spans="2:13">
       <c r="B113" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E113">
         <v>212</v>
       </c>
-    </row>
-    <row r="114" spans="2:5">
+      <c r="L113" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M113" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="114" spans="2:13">
       <c r="B114" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E114">
         <v>213</v>
       </c>
-    </row>
-    <row r="115" spans="2:5">
+      <c r="L114" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M114" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="115" spans="2:13">
       <c r="B115" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E115">
         <v>214</v>
       </c>
-    </row>
-    <row r="116" spans="2:5">
+      <c r="L115" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M115" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="116" spans="2:13">
       <c r="B116" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E116">
         <v>215</v>
       </c>
-    </row>
-    <row r="117" spans="2:5">
+      <c r="L116" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M116" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="117" spans="2:13">
       <c r="B117" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E117">
         <v>216</v>
       </c>
-    </row>
-    <row r="118" spans="2:5">
+      <c r="L117" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M117" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="118" spans="2:13">
       <c r="B118" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E118">
         <v>217</v>
       </c>
+      <c r="L118" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M118" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="119" spans="2:13">
+      <c r="B119" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C119" t="s">
+        <v>81</v>
+      </c>
+      <c r="D119" t="s">
+        <v>239</v>
+      </c>
+      <c r="E119">
+        <v>217</v>
+      </c>
+      <c r="L119" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="M119" s="25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="120" spans="2:13">
+      <c r="B120" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C120" t="s">
+        <v>87</v>
+      </c>
+      <c r="D120" t="s">
+        <v>240</v>
+      </c>
+      <c r="E120">
+        <v>217</v>
+      </c>
+      <c r="L120" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="M120" s="25" t="s">
+        <v>125</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D118">
-    <sortCondition ref="B2:B118"/>
-    <sortCondition ref="C2:C118"/>
-    <sortCondition ref="D2:D118"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="L2:M121">
+    <sortCondition ref="L2:L121"/>
+    <sortCondition ref="M2:M121"/>
   </sortState>
   <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ONCHO/Impact Assessments/Guinea Bissau/gw_oncho_202302_prestop_1_site.xlsx
+++ b/ONCHO/Impact Assessments/Guinea Bissau/gw_oncho_202302_prestop_1_site.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\WHO\dsa-forms\ONCHO\Impact Assessments\Guinea Bissau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B1EE0E-F88D-499A-97F7-E3BA6385334D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78EB363A-2ACA-4F6F-8955-4F559C3D3AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -960,7 +960,17 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1666,9 +1676,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G289"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A278" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B293" sqref="B293"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A30:XFD169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2239,14 +2249,14 @@
       <c r="A35" t="s">
         <v>53</v>
       </c>
-      <c r="B35" t="s">
-        <v>126</v>
-      </c>
-      <c r="C35" t="s">
-        <v>126</v>
+      <c r="B35" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>208</v>
       </c>
       <c r="D35" t="s">
-        <v>126</v>
+        <v>211</v>
       </c>
       <c r="F35" t="s">
         <v>70</v>
@@ -2257,16 +2267,16 @@
         <v>53</v>
       </c>
       <c r="B36" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="C36" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="D36" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="F36" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2274,13 +2284,13 @@
         <v>53</v>
       </c>
       <c r="B37" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C37" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D37" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F37" t="s">
         <v>88</v>
@@ -2291,13 +2301,13 @@
         <v>53</v>
       </c>
       <c r="B38" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C38" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D38" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F38" t="s">
         <v>88</v>
@@ -2308,13 +2318,13 @@
         <v>53</v>
       </c>
       <c r="B39" t="s">
-        <v>191</v>
+        <v>160</v>
       </c>
       <c r="C39" t="s">
-        <v>191</v>
+        <v>160</v>
       </c>
       <c r="D39" t="s">
-        <v>191</v>
+        <v>160</v>
       </c>
       <c r="F39" t="s">
         <v>88</v>
@@ -2324,14 +2334,14 @@
       <c r="A40" t="s">
         <v>53</v>
       </c>
-      <c r="B40" t="s">
-        <v>202</v>
-      </c>
-      <c r="C40" t="s">
-        <v>202</v>
+      <c r="B40" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>208</v>
       </c>
       <c r="D40" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="F40" t="s">
         <v>88</v>
@@ -2342,16 +2352,16 @@
         <v>53</v>
       </c>
       <c r="B41" t="s">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c r="C41" t="s">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c r="D41" t="s">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c r="F41" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2359,16 +2369,16 @@
         <v>53</v>
       </c>
       <c r="B42" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="C42" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="D42" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="F42" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2376,16 +2386,16 @@
         <v>53</v>
       </c>
       <c r="B43" t="s">
-        <v>158</v>
+        <v>202</v>
       </c>
       <c r="C43" t="s">
-        <v>158</v>
+        <v>202</v>
       </c>
       <c r="D43" t="s">
-        <v>158</v>
+        <v>202</v>
       </c>
       <c r="F43" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2393,13 +2403,13 @@
         <v>53</v>
       </c>
       <c r="B44" t="s">
-        <v>89</v>
+        <v>150</v>
       </c>
       <c r="C44" t="s">
-        <v>89</v>
+        <v>150</v>
       </c>
       <c r="D44" t="s">
-        <v>89</v>
+        <v>150</v>
       </c>
       <c r="F44" t="s">
         <v>86</v>
@@ -2410,13 +2420,13 @@
         <v>53</v>
       </c>
       <c r="B45" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="C45" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="D45" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="F45" t="s">
         <v>86</v>
@@ -2427,13 +2437,13 @@
         <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="C46" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="D46" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="F46" t="s">
         <v>86</v>
@@ -2444,13 +2454,13 @@
         <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>183</v>
+        <v>89</v>
       </c>
       <c r="C47" t="s">
-        <v>183</v>
+        <v>89</v>
       </c>
       <c r="D47" t="s">
-        <v>183</v>
+        <v>89</v>
       </c>
       <c r="F47" t="s">
         <v>86</v>
@@ -2460,14 +2470,14 @@
       <c r="A48" t="s">
         <v>53</v>
       </c>
-      <c r="B48" t="s">
-        <v>200</v>
-      </c>
-      <c r="C48" t="s">
-        <v>200</v>
+      <c r="B48" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>208</v>
       </c>
       <c r="D48" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="F48" t="s">
         <v>86</v>
@@ -2478,13 +2488,13 @@
         <v>53</v>
       </c>
       <c r="B49" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="C49" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="D49" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="F49" t="s">
         <v>86</v>
@@ -2495,16 +2505,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>129</v>
+        <v>182</v>
       </c>
       <c r="C50" t="s">
-        <v>129</v>
+        <v>182</v>
       </c>
       <c r="D50" t="s">
-        <v>129</v>
+        <v>182</v>
       </c>
       <c r="F50" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2512,16 +2522,16 @@
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>134</v>
+        <v>183</v>
       </c>
       <c r="C51" t="s">
-        <v>134</v>
+        <v>183</v>
       </c>
       <c r="D51" t="s">
-        <v>134</v>
+        <v>183</v>
       </c>
       <c r="F51" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2529,16 +2539,16 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>135</v>
+        <v>200</v>
       </c>
       <c r="C52" t="s">
-        <v>135</v>
+        <v>200</v>
       </c>
       <c r="D52" t="s">
-        <v>135</v>
+        <v>200</v>
       </c>
       <c r="F52" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2546,16 +2556,16 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>136</v>
+        <v>201</v>
       </c>
       <c r="C53" t="s">
-        <v>136</v>
+        <v>201</v>
       </c>
       <c r="D53" t="s">
-        <v>136</v>
+        <v>201</v>
       </c>
       <c r="F53" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2563,13 +2573,13 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C54" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D54" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F54" t="s">
         <v>79</v>
@@ -2580,13 +2590,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C55" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D55" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F55" t="s">
         <v>79</v>
@@ -2597,13 +2607,13 @@
         <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="C56" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="D56" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="F56" t="s">
         <v>79</v>
@@ -2614,13 +2624,13 @@
         <v>53</v>
       </c>
       <c r="B57" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C57" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="D57" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="F57" t="s">
         <v>79</v>
@@ -2631,13 +2641,13 @@
         <v>53</v>
       </c>
       <c r="B58" t="s">
-        <v>188</v>
+        <v>137</v>
       </c>
       <c r="C58" t="s">
-        <v>188</v>
+        <v>137</v>
       </c>
       <c r="D58" t="s">
-        <v>188</v>
+        <v>137</v>
       </c>
       <c r="F58" t="s">
         <v>79</v>
@@ -2648,13 +2658,13 @@
         <v>53</v>
       </c>
       <c r="B59" t="s">
-        <v>189</v>
+        <v>138</v>
       </c>
       <c r="C59" t="s">
-        <v>189</v>
+        <v>138</v>
       </c>
       <c r="D59" t="s">
-        <v>189</v>
+        <v>138</v>
       </c>
       <c r="F59" t="s">
         <v>79</v>
@@ -2665,13 +2675,13 @@
         <v>53</v>
       </c>
       <c r="B60" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="C60" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="D60" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="F60" t="s">
         <v>79</v>
@@ -2682,33 +2692,33 @@
         <v>53</v>
       </c>
       <c r="B61" t="s">
-        <v>114</v>
+        <v>163</v>
       </c>
       <c r="C61" t="s">
-        <v>114</v>
+        <v>163</v>
       </c>
       <c r="D61" t="s">
-        <v>114</v>
+        <v>163</v>
       </c>
       <c r="F61" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
         <v>53</v>
       </c>
-      <c r="B62" t="s">
-        <v>128</v>
-      </c>
-      <c r="C62" t="s">
-        <v>128</v>
+      <c r="B62" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>208</v>
       </c>
       <c r="D62" t="s">
-        <v>128</v>
+        <v>211</v>
       </c>
       <c r="F62" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2716,16 +2726,16 @@
         <v>53</v>
       </c>
       <c r="B63" t="s">
-        <v>139</v>
+        <v>188</v>
       </c>
       <c r="C63" t="s">
-        <v>139</v>
+        <v>188</v>
       </c>
       <c r="D63" t="s">
-        <v>139</v>
+        <v>188</v>
       </c>
       <c r="F63" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2733,16 +2743,16 @@
         <v>53</v>
       </c>
       <c r="B64" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="C64" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="D64" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="F64" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2750,16 +2760,16 @@
         <v>53</v>
       </c>
       <c r="B65" t="s">
-        <v>146</v>
+        <v>195</v>
       </c>
       <c r="C65" t="s">
-        <v>146</v>
+        <v>195</v>
       </c>
       <c r="D65" t="s">
-        <v>146</v>
+        <v>195</v>
       </c>
       <c r="F65" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2767,33 +2777,33 @@
         <v>53</v>
       </c>
       <c r="B66" t="s">
-        <v>161</v>
+        <v>114</v>
       </c>
       <c r="C66" t="s">
-        <v>161</v>
+        <v>114</v>
       </c>
       <c r="D66" t="s">
-        <v>161</v>
+        <v>114</v>
       </c>
       <c r="F66" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
         <v>53</v>
       </c>
-      <c r="B67" t="s">
-        <v>167</v>
-      </c>
-      <c r="C67" t="s">
-        <v>167</v>
+      <c r="B67" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>208</v>
       </c>
       <c r="D67" t="s">
-        <v>167</v>
+        <v>211</v>
       </c>
       <c r="F67" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2801,13 +2811,13 @@
         <v>53</v>
       </c>
       <c r="B68" t="s">
-        <v>176</v>
+        <v>128</v>
       </c>
       <c r="C68" t="s">
-        <v>176</v>
+        <v>128</v>
       </c>
       <c r="D68" t="s">
-        <v>176</v>
+        <v>128</v>
       </c>
       <c r="F68" t="s">
         <v>78</v>
@@ -2818,13 +2828,13 @@
         <v>53</v>
       </c>
       <c r="B69" t="s">
-        <v>180</v>
+        <v>139</v>
       </c>
       <c r="C69" t="s">
-        <v>180</v>
+        <v>139</v>
       </c>
       <c r="D69" t="s">
-        <v>180</v>
+        <v>139</v>
       </c>
       <c r="F69" t="s">
         <v>78</v>
@@ -2835,13 +2845,13 @@
         <v>53</v>
       </c>
       <c r="B70" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C70" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D70" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F70" t="s">
         <v>78</v>
@@ -2852,13 +2862,13 @@
         <v>53</v>
       </c>
       <c r="B71" t="s">
-        <v>205</v>
+        <v>146</v>
       </c>
       <c r="C71" t="s">
-        <v>205</v>
+        <v>146</v>
       </c>
       <c r="D71" t="s">
-        <v>205</v>
+        <v>146</v>
       </c>
       <c r="F71" t="s">
         <v>78</v>
@@ -2869,13 +2879,13 @@
         <v>53</v>
       </c>
       <c r="B72" t="s">
-        <v>206</v>
+        <v>161</v>
       </c>
       <c r="C72" t="s">
-        <v>206</v>
+        <v>161</v>
       </c>
       <c r="D72" t="s">
-        <v>206</v>
+        <v>161</v>
       </c>
       <c r="F72" t="s">
         <v>78</v>
@@ -2886,16 +2896,16 @@
         <v>53</v>
       </c>
       <c r="B73" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="C73" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="D73" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="F73" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2903,16 +2913,16 @@
         <v>53</v>
       </c>
       <c r="B74" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="C74" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="D74" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="F74" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2920,33 +2930,33 @@
         <v>53</v>
       </c>
       <c r="B75" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="C75" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="D75" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="F75" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
         <v>53</v>
       </c>
-      <c r="B76" t="s">
-        <v>110</v>
-      </c>
-      <c r="C76" t="s">
-        <v>110</v>
+      <c r="B76" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="C76" s="16" t="s">
+        <v>208</v>
       </c>
       <c r="D76" t="s">
-        <v>110</v>
+        <v>211</v>
       </c>
       <c r="F76" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2954,16 +2964,16 @@
         <v>53</v>
       </c>
       <c r="B77" t="s">
-        <v>112</v>
+        <v>204</v>
       </c>
       <c r="C77" t="s">
-        <v>112</v>
+        <v>204</v>
       </c>
       <c r="D77" t="s">
-        <v>112</v>
+        <v>204</v>
       </c>
       <c r="F77" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2971,16 +2981,16 @@
         <v>53</v>
       </c>
       <c r="B78" t="s">
-        <v>113</v>
+        <v>205</v>
       </c>
       <c r="C78" t="s">
-        <v>113</v>
+        <v>205</v>
       </c>
       <c r="D78" t="s">
-        <v>113</v>
+        <v>205</v>
       </c>
       <c r="F78" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2988,16 +2998,16 @@
         <v>53</v>
       </c>
       <c r="B79" t="s">
-        <v>119</v>
+        <v>206</v>
       </c>
       <c r="C79" t="s">
-        <v>119</v>
+        <v>206</v>
       </c>
       <c r="D79" t="s">
-        <v>119</v>
+        <v>206</v>
       </c>
       <c r="F79" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3005,33 +3015,33 @@
         <v>53</v>
       </c>
       <c r="B80" t="s">
-        <v>124</v>
+        <v>179</v>
       </c>
       <c r="C80" t="s">
-        <v>124</v>
+        <v>179</v>
       </c>
       <c r="D80" t="s">
-        <v>124</v>
+        <v>179</v>
       </c>
       <c r="F80" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
         <v>53</v>
       </c>
-      <c r="B81" t="s">
-        <v>121</v>
-      </c>
-      <c r="C81" t="s">
-        <v>121</v>
+      <c r="B81" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="C81" s="16" t="s">
+        <v>208</v>
       </c>
       <c r="D81" t="s">
-        <v>121</v>
+        <v>211</v>
       </c>
       <c r="F81" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3039,16 +3049,16 @@
         <v>53</v>
       </c>
       <c r="B82" t="s">
-        <v>131</v>
+        <v>194</v>
       </c>
       <c r="C82" t="s">
-        <v>131</v>
+        <v>194</v>
       </c>
       <c r="D82" t="s">
-        <v>131</v>
+        <v>194</v>
       </c>
       <c r="F82" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3056,16 +3066,16 @@
         <v>53</v>
       </c>
       <c r="B83" t="s">
-        <v>140</v>
+        <v>193</v>
       </c>
       <c r="C83" t="s">
-        <v>140</v>
+        <v>193</v>
       </c>
       <c r="D83" t="s">
-        <v>140</v>
+        <v>193</v>
       </c>
       <c r="F83" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3073,16 +3083,16 @@
         <v>53</v>
       </c>
       <c r="B84" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="C84" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="D84" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="F84" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3090,16 +3100,16 @@
         <v>53</v>
       </c>
       <c r="B85" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="C85" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="D85" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="F85" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3107,16 +3117,16 @@
         <v>53</v>
       </c>
       <c r="B86" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C86" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="D86" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="F86" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3124,33 +3134,33 @@
         <v>53</v>
       </c>
       <c r="B87" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="C87" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="D87" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="F87" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
         <v>53</v>
       </c>
-      <c r="B88" t="s">
-        <v>159</v>
-      </c>
-      <c r="C88" t="s">
-        <v>159</v>
+      <c r="B88" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="C88" s="16" t="s">
+        <v>208</v>
       </c>
       <c r="D88" t="s">
-        <v>159</v>
+        <v>211</v>
       </c>
       <c r="F88" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3158,16 +3168,16 @@
         <v>53</v>
       </c>
       <c r="B89" t="s">
-        <v>169</v>
+        <v>124</v>
       </c>
       <c r="C89" t="s">
-        <v>169</v>
+        <v>124</v>
       </c>
       <c r="D89" t="s">
-        <v>169</v>
+        <v>124</v>
       </c>
       <c r="F89" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3175,16 +3185,16 @@
         <v>53</v>
       </c>
       <c r="B90" t="s">
-        <v>171</v>
+        <v>121</v>
       </c>
       <c r="C90" t="s">
-        <v>171</v>
+        <v>121</v>
       </c>
       <c r="D90" t="s">
-        <v>171</v>
+        <v>121</v>
       </c>
       <c r="F90" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3192,13 +3202,13 @@
         <v>53</v>
       </c>
       <c r="B91" t="s">
-        <v>185</v>
+        <v>131</v>
       </c>
       <c r="C91" t="s">
-        <v>185</v>
+        <v>131</v>
       </c>
       <c r="D91" t="s">
-        <v>185</v>
+        <v>131</v>
       </c>
       <c r="F91" t="s">
         <v>81</v>
@@ -3209,13 +3219,13 @@
         <v>53</v>
       </c>
       <c r="B92" t="s">
-        <v>239</v>
+        <v>140</v>
       </c>
       <c r="C92" t="s">
-        <v>239</v>
+        <v>140</v>
       </c>
       <c r="D92" t="s">
-        <v>239</v>
+        <v>140</v>
       </c>
       <c r="F92" t="s">
         <v>81</v>
@@ -3226,13 +3236,13 @@
         <v>53</v>
       </c>
       <c r="B93" t="s">
-        <v>198</v>
+        <v>142</v>
       </c>
       <c r="C93" t="s">
-        <v>198</v>
+        <v>142</v>
       </c>
       <c r="D93" t="s">
-        <v>198</v>
+        <v>142</v>
       </c>
       <c r="F93" t="s">
         <v>81</v>
@@ -3243,13 +3253,13 @@
         <v>53</v>
       </c>
       <c r="B94" t="s">
-        <v>199</v>
+        <v>145</v>
       </c>
       <c r="C94" t="s">
-        <v>199</v>
+        <v>145</v>
       </c>
       <c r="D94" t="s">
-        <v>199</v>
+        <v>145</v>
       </c>
       <c r="F94" t="s">
         <v>81</v>
@@ -3260,13 +3270,13 @@
         <v>53</v>
       </c>
       <c r="B95" t="s">
-        <v>203</v>
+        <v>104</v>
       </c>
       <c r="C95" t="s">
-        <v>203</v>
+        <v>104</v>
       </c>
       <c r="D95" t="s">
-        <v>203</v>
+        <v>104</v>
       </c>
       <c r="F95" t="s">
         <v>81</v>
@@ -3277,16 +3287,16 @@
         <v>53</v>
       </c>
       <c r="B96" t="s">
-        <v>141</v>
+        <v>97</v>
       </c>
       <c r="C96" t="s">
-        <v>141</v>
+        <v>97</v>
       </c>
       <c r="D96" t="s">
-        <v>141</v>
+        <v>97</v>
       </c>
       <c r="F96" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3294,16 +3304,16 @@
         <v>53</v>
       </c>
       <c r="B97" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="C97" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="D97" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="F97" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3311,16 +3321,16 @@
         <v>53</v>
       </c>
       <c r="B98" t="s">
-        <v>94</v>
+        <v>159</v>
       </c>
       <c r="C98" t="s">
-        <v>94</v>
+        <v>159</v>
       </c>
       <c r="D98" t="s">
-        <v>94</v>
+        <v>159</v>
       </c>
       <c r="F98" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3328,16 +3338,16 @@
         <v>53</v>
       </c>
       <c r="B99" t="s">
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="C99" t="s">
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="D99" t="s">
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="F99" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3345,33 +3355,33 @@
         <v>53</v>
       </c>
       <c r="B100" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="C100" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="D100" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="F100" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
         <v>53</v>
       </c>
-      <c r="B101" t="s">
-        <v>97</v>
-      </c>
-      <c r="C101" t="s">
-        <v>97</v>
+      <c r="B101" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="C101" s="16" t="s">
+        <v>208</v>
       </c>
       <c r="D101" t="s">
-        <v>97</v>
+        <v>211</v>
       </c>
       <c r="F101" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3379,16 +3389,16 @@
         <v>53</v>
       </c>
       <c r="B102" t="s">
-        <v>102</v>
+        <v>185</v>
       </c>
       <c r="C102" t="s">
-        <v>102</v>
+        <v>185</v>
       </c>
       <c r="D102" t="s">
-        <v>102</v>
+        <v>185</v>
       </c>
       <c r="F102" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3396,16 +3406,16 @@
         <v>53</v>
       </c>
       <c r="B103" t="s">
-        <v>101</v>
+        <v>239</v>
       </c>
       <c r="C103" t="s">
-        <v>101</v>
+        <v>239</v>
       </c>
       <c r="D103" t="s">
-        <v>101</v>
+        <v>239</v>
       </c>
       <c r="F103" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3413,16 +3423,16 @@
         <v>53</v>
       </c>
       <c r="B104" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="C104" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="D104" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="F104" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3430,16 +3440,16 @@
         <v>53</v>
       </c>
       <c r="B105" t="s">
-        <v>103</v>
+        <v>199</v>
       </c>
       <c r="C105" t="s">
-        <v>103</v>
+        <v>199</v>
       </c>
       <c r="D105" t="s">
-        <v>103</v>
+        <v>199</v>
       </c>
       <c r="F105" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3447,16 +3457,16 @@
         <v>53</v>
       </c>
       <c r="B106" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="C106" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="D106" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="F106" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3464,16 +3474,16 @@
         <v>53</v>
       </c>
       <c r="B107" t="s">
-        <v>96</v>
+        <v>141</v>
       </c>
       <c r="C107" t="s">
-        <v>96</v>
+        <v>141</v>
       </c>
       <c r="D107" t="s">
-        <v>96</v>
+        <v>141</v>
       </c>
       <c r="F107" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3481,33 +3491,33 @@
         <v>53</v>
       </c>
       <c r="B108" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="C108" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="D108" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="F108" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
         <v>53</v>
       </c>
-      <c r="B109" t="s">
-        <v>190</v>
-      </c>
-      <c r="C109" t="s">
-        <v>190</v>
+      <c r="B109" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="C109" s="16" t="s">
+        <v>208</v>
       </c>
       <c r="D109" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="F109" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3515,16 +3525,16 @@
         <v>53</v>
       </c>
       <c r="B110" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="C110" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="D110" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="F110" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3532,16 +3542,16 @@
         <v>53</v>
       </c>
       <c r="B111" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="C111" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="D111" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="F111" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3549,16 +3559,16 @@
         <v>53</v>
       </c>
       <c r="B112" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C112" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D112" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F112" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3566,16 +3576,16 @@
         <v>53</v>
       </c>
       <c r="B113" t="s">
-        <v>174</v>
+        <v>102</v>
       </c>
       <c r="C113" t="s">
-        <v>174</v>
+        <v>102</v>
       </c>
       <c r="D113" t="s">
-        <v>174</v>
+        <v>102</v>
       </c>
       <c r="F113" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3583,16 +3593,16 @@
         <v>53</v>
       </c>
       <c r="B114" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C114" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="D114" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="F114" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3600,33 +3610,33 @@
         <v>53</v>
       </c>
       <c r="B115" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C115" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="D115" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="F115" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
         <v>53</v>
       </c>
-      <c r="B116" t="s">
-        <v>132</v>
-      </c>
-      <c r="C116" t="s">
-        <v>132</v>
+      <c r="B116" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="C116" s="16" t="s">
+        <v>208</v>
       </c>
       <c r="D116" t="s">
-        <v>132</v>
+        <v>211</v>
       </c>
       <c r="F116" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3634,16 +3644,16 @@
         <v>53</v>
       </c>
       <c r="B117" t="s">
-        <v>133</v>
+        <v>186</v>
       </c>
       <c r="C117" t="s">
-        <v>133</v>
+        <v>186</v>
       </c>
       <c r="D117" t="s">
-        <v>133</v>
+        <v>186</v>
       </c>
       <c r="F117" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3651,16 +3661,16 @@
         <v>53</v>
       </c>
       <c r="B118" t="s">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="C118" t="s">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="D118" t="s">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="F118" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3668,16 +3678,16 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>154</v>
+        <v>187</v>
       </c>
       <c r="C119" t="s">
-        <v>154</v>
+        <v>187</v>
       </c>
       <c r="D119" t="s">
-        <v>154</v>
+        <v>187</v>
       </c>
       <c r="F119" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3685,16 +3695,16 @@
         <v>53</v>
       </c>
       <c r="B120" t="s">
-        <v>155</v>
+        <v>190</v>
       </c>
       <c r="C120" t="s">
-        <v>155</v>
+        <v>190</v>
       </c>
       <c r="D120" t="s">
-        <v>155</v>
+        <v>190</v>
       </c>
       <c r="F120" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3702,33 +3712,33 @@
         <v>53</v>
       </c>
       <c r="B121" t="s">
-        <v>168</v>
+        <v>118</v>
       </c>
       <c r="C121" t="s">
-        <v>168</v>
+        <v>118</v>
       </c>
       <c r="D121" t="s">
-        <v>168</v>
+        <v>118</v>
       </c>
       <c r="F121" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
         <v>53</v>
       </c>
-      <c r="B122" t="s">
-        <v>170</v>
-      </c>
-      <c r="C122" t="s">
-        <v>170</v>
+      <c r="B122" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="C122" s="16" t="s">
+        <v>208</v>
       </c>
       <c r="D122" t="s">
-        <v>170</v>
+        <v>211</v>
       </c>
       <c r="F122" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3736,33 +3746,33 @@
         <v>53</v>
       </c>
       <c r="B123" t="s">
-        <v>172</v>
+        <v>130</v>
       </c>
       <c r="C123" t="s">
-        <v>172</v>
+        <v>130</v>
       </c>
       <c r="D123" t="s">
-        <v>172</v>
+        <v>130</v>
       </c>
       <c r="F123" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" t="s">
         <v>53</v>
       </c>
-      <c r="B124" t="s">
-        <v>173</v>
-      </c>
-      <c r="C124" t="s">
-        <v>173</v>
+      <c r="B124" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="C124" s="16" t="s">
+        <v>208</v>
       </c>
       <c r="D124" t="s">
-        <v>173</v>
+        <v>211</v>
       </c>
       <c r="F124" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3770,16 +3780,16 @@
         <v>53</v>
       </c>
       <c r="B125" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="C125" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="D125" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="F125" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3787,33 +3797,33 @@
         <v>53</v>
       </c>
       <c r="B126" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="C126" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="D126" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="F126" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" t="s">
         <v>53</v>
       </c>
-      <c r="B127" t="s">
-        <v>196</v>
-      </c>
-      <c r="C127" t="s">
-        <v>196</v>
+      <c r="B127" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="C127" s="16" t="s">
+        <v>208</v>
       </c>
       <c r="D127" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="F127" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3821,16 +3831,16 @@
         <v>53</v>
       </c>
       <c r="B128" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="C128" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="D128" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="F128" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3838,33 +3848,33 @@
         <v>53</v>
       </c>
       <c r="B129" t="s">
-        <v>117</v>
+        <v>175</v>
       </c>
       <c r="C129" t="s">
-        <v>117</v>
+        <v>175</v>
       </c>
       <c r="D129" t="s">
-        <v>117</v>
+        <v>175</v>
       </c>
       <c r="F129" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" t="s">
         <v>53</v>
       </c>
-      <c r="B130" t="s">
-        <v>122</v>
-      </c>
-      <c r="C130" t="s">
-        <v>122</v>
+      <c r="B130" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="C130" s="16" t="s">
+        <v>208</v>
       </c>
       <c r="D130" t="s">
-        <v>122</v>
+        <v>211</v>
       </c>
       <c r="F130" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3872,16 +3882,16 @@
         <v>53</v>
       </c>
       <c r="B131" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="C131" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="D131" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="F131" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3889,16 +3899,16 @@
         <v>53</v>
       </c>
       <c r="B132" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C132" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D132" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F132" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3906,16 +3916,16 @@
         <v>53</v>
       </c>
       <c r="B133" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C133" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D133" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="F133" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3923,16 +3933,16 @@
         <v>53</v>
       </c>
       <c r="B134" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C134" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="D134" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="F134" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3940,16 +3950,16 @@
         <v>53</v>
       </c>
       <c r="B135" t="s">
-        <v>240</v>
+        <v>155</v>
       </c>
       <c r="C135" t="s">
-        <v>240</v>
+        <v>155</v>
       </c>
       <c r="D135" t="s">
-        <v>240</v>
+        <v>155</v>
       </c>
       <c r="F135" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3957,16 +3967,16 @@
         <v>53</v>
       </c>
       <c r="B136" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C136" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="D136" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="F136" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3974,16 +3984,16 @@
         <v>53</v>
       </c>
       <c r="B137" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="C137" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="D137" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="F137" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3991,16 +4001,16 @@
         <v>53</v>
       </c>
       <c r="B138" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="C138" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="D138" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="F138" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -4008,16 +4018,16 @@
         <v>53</v>
       </c>
       <c r="B139" t="s">
-        <v>109</v>
+        <v>173</v>
       </c>
       <c r="C139" t="s">
-        <v>109</v>
+        <v>173</v>
       </c>
       <c r="D139" t="s">
-        <v>109</v>
+        <v>173</v>
       </c>
       <c r="F139" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -4025,33 +4035,33 @@
         <v>53</v>
       </c>
       <c r="B140" t="s">
-        <v>143</v>
+        <v>178</v>
       </c>
       <c r="C140" t="s">
-        <v>143</v>
+        <v>178</v>
       </c>
       <c r="D140" t="s">
-        <v>143</v>
+        <v>178</v>
       </c>
       <c r="F140" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" t="s">
         <v>53</v>
       </c>
-      <c r="B141" t="s">
-        <v>148</v>
-      </c>
-      <c r="C141" t="s">
-        <v>148</v>
+      <c r="B141" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="C141" s="16" t="s">
+        <v>208</v>
       </c>
       <c r="D141" t="s">
-        <v>148</v>
+        <v>211</v>
       </c>
       <c r="F141" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4059,16 +4069,16 @@
         <v>53</v>
       </c>
       <c r="B142" t="s">
-        <v>92</v>
+        <v>184</v>
       </c>
       <c r="C142" t="s">
-        <v>92</v>
+        <v>184</v>
       </c>
       <c r="D142" t="s">
-        <v>92</v>
+        <v>184</v>
       </c>
       <c r="F142" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4076,16 +4086,16 @@
         <v>53</v>
       </c>
       <c r="B143" t="s">
-        <v>107</v>
+        <v>196</v>
       </c>
       <c r="C143" t="s">
-        <v>107</v>
+        <v>196</v>
       </c>
       <c r="D143" t="s">
-        <v>107</v>
+        <v>196</v>
       </c>
       <c r="F143" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4093,16 +4103,16 @@
         <v>53</v>
       </c>
       <c r="B144" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C144" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D144" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F144" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4110,33 +4120,33 @@
         <v>53</v>
       </c>
       <c r="B145" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C145" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D145" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="F145" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" t="s">
         <v>53</v>
       </c>
-      <c r="B146" t="s">
-        <v>116</v>
-      </c>
-      <c r="C146" t="s">
-        <v>116</v>
+      <c r="B146" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="C146" s="16" t="s">
+        <v>208</v>
       </c>
       <c r="D146" t="s">
-        <v>116</v>
+        <v>211</v>
       </c>
       <c r="F146" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4144,16 +4154,16 @@
         <v>53</v>
       </c>
       <c r="B147" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C147" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D147" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F147" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4161,101 +4171,101 @@
         <v>53</v>
       </c>
       <c r="B148" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C148" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D148" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F148" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" t="s">
         <v>53</v>
       </c>
-      <c r="B149" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="C149" s="16" t="s">
-        <v>208</v>
+      <c r="B149" t="s">
+        <v>127</v>
+      </c>
+      <c r="C149" t="s">
+        <v>127</v>
       </c>
       <c r="D149" t="s">
-        <v>211</v>
+        <v>127</v>
       </c>
       <c r="F149" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" t="s">
         <v>53</v>
       </c>
-      <c r="B150" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="C150" s="16" t="s">
-        <v>208</v>
+      <c r="B150" t="s">
+        <v>152</v>
+      </c>
+      <c r="C150" t="s">
+        <v>152</v>
       </c>
       <c r="D150" t="s">
-        <v>211</v>
+        <v>152</v>
       </c>
       <c r="F150" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" t="s">
         <v>53</v>
       </c>
-      <c r="B151" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="C151" s="16" t="s">
-        <v>208</v>
+      <c r="B151" t="s">
+        <v>164</v>
+      </c>
+      <c r="C151" t="s">
+        <v>164</v>
       </c>
       <c r="D151" t="s">
-        <v>211</v>
+        <v>164</v>
       </c>
       <c r="F151" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" t="s">
         <v>53</v>
       </c>
-      <c r="B152" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="C152" s="16" t="s">
-        <v>208</v>
+      <c r="B152" t="s">
+        <v>240</v>
+      </c>
+      <c r="C152" t="s">
+        <v>240</v>
       </c>
       <c r="D152" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="F152" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" t="s">
         <v>53</v>
       </c>
-      <c r="B153" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="C153" s="16" t="s">
-        <v>208</v>
+      <c r="B153" t="s">
+        <v>177</v>
+      </c>
+      <c r="C153" t="s">
+        <v>177</v>
       </c>
       <c r="D153" t="s">
-        <v>211</v>
+        <v>177</v>
       </c>
       <c r="F153" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4272,58 +4282,58 @@
         <v>211</v>
       </c>
       <c r="F154" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" t="s">
         <v>53</v>
       </c>
-      <c r="B155" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="C155" s="16" t="s">
-        <v>208</v>
+      <c r="B155" t="s">
+        <v>192</v>
+      </c>
+      <c r="C155" t="s">
+        <v>192</v>
       </c>
       <c r="D155" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="F155" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" t="s">
         <v>53</v>
       </c>
-      <c r="B156" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="C156" s="16" t="s">
-        <v>208</v>
+      <c r="B156" t="s">
+        <v>197</v>
+      </c>
+      <c r="C156" t="s">
+        <v>197</v>
       </c>
       <c r="D156" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="F156" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" t="s">
         <v>53</v>
       </c>
-      <c r="B157" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="C157" s="16" t="s">
-        <v>208</v>
+      <c r="B157" t="s">
+        <v>109</v>
+      </c>
+      <c r="C157" t="s">
+        <v>109</v>
       </c>
       <c r="D157" t="s">
-        <v>211</v>
+        <v>109</v>
       </c>
       <c r="F157" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4340,41 +4350,41 @@
         <v>211</v>
       </c>
       <c r="F158" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" t="s">
         <v>53</v>
       </c>
-      <c r="B159" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="C159" s="16" t="s">
-        <v>208</v>
+      <c r="B159" t="s">
+        <v>143</v>
+      </c>
+      <c r="C159" t="s">
+        <v>143</v>
       </c>
       <c r="D159" t="s">
-        <v>211</v>
+        <v>143</v>
       </c>
       <c r="F159" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" t="s">
         <v>53</v>
       </c>
-      <c r="B160" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="C160" s="16" t="s">
-        <v>208</v>
+      <c r="B160" t="s">
+        <v>148</v>
+      </c>
+      <c r="C160" t="s">
+        <v>148</v>
       </c>
       <c r="D160" t="s">
-        <v>211</v>
+        <v>148</v>
       </c>
       <c r="F160" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4391,109 +4401,109 @@
         <v>211</v>
       </c>
       <c r="F161" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" t="s">
         <v>53</v>
       </c>
-      <c r="B162" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="C162" s="16" t="s">
-        <v>208</v>
+      <c r="B162" t="s">
+        <v>92</v>
+      </c>
+      <c r="C162" t="s">
+        <v>92</v>
       </c>
       <c r="D162" t="s">
-        <v>211</v>
+        <v>92</v>
       </c>
       <c r="F162" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" t="s">
         <v>53</v>
       </c>
-      <c r="B163" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="C163" s="16" t="s">
-        <v>208</v>
+      <c r="B163" t="s">
+        <v>107</v>
+      </c>
+      <c r="C163" t="s">
+        <v>107</v>
       </c>
       <c r="D163" t="s">
-        <v>211</v>
+        <v>107</v>
       </c>
       <c r="F163" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" t="s">
         <v>53</v>
       </c>
-      <c r="B164" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="C164" s="16" t="s">
-        <v>208</v>
+      <c r="B164" t="s">
+        <v>108</v>
+      </c>
+      <c r="C164" t="s">
+        <v>108</v>
       </c>
       <c r="D164" t="s">
-        <v>211</v>
+        <v>108</v>
       </c>
       <c r="F164" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" t="s">
         <v>53</v>
       </c>
-      <c r="B165" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="C165" s="16" t="s">
-        <v>208</v>
+      <c r="B165" t="s">
+        <v>111</v>
+      </c>
+      <c r="C165" t="s">
+        <v>111</v>
       </c>
       <c r="D165" t="s">
-        <v>211</v>
+        <v>111</v>
       </c>
       <c r="F165" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" t="s">
         <v>53</v>
       </c>
-      <c r="B166" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="C166" s="16" t="s">
-        <v>208</v>
+      <c r="B166" t="s">
+        <v>116</v>
+      </c>
+      <c r="C166" t="s">
+        <v>116</v>
       </c>
       <c r="D166" t="s">
-        <v>211</v>
+        <v>116</v>
       </c>
       <c r="F166" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" t="s">
         <v>53</v>
       </c>
-      <c r="B167" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="C167" s="16" t="s">
-        <v>208</v>
+      <c r="B167" t="s">
+        <v>120</v>
+      </c>
+      <c r="C167" t="s">
+        <v>120</v>
       </c>
       <c r="D167" t="s">
-        <v>211</v>
+        <v>120</v>
       </c>
       <c r="F167" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4510,24 +4520,24 @@
         <v>211</v>
       </c>
       <c r="F168" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" t="s">
         <v>53</v>
       </c>
-      <c r="B169" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="C169" s="16" t="s">
-        <v>208</v>
+      <c r="B169" t="s">
+        <v>125</v>
+      </c>
+      <c r="C169" t="s">
+        <v>125</v>
       </c>
       <c r="D169" t="s">
-        <v>211</v>
+        <v>125</v>
       </c>
       <c r="F169" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -6554,9 +6564,9 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A21:F28">
-    <sortCondition ref="A21:A28"/>
-    <sortCondition ref="F21:F28"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A30:G169">
+    <sortCondition ref="F30:F169"/>
+    <sortCondition ref="B30:B169"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6566,8 +6576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -6615,8 +6625,8 @@
   <dimension ref="B1:M120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D120"/>
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
@@ -8458,7 +8468,7 @@
         <v>77</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>97</v>
@@ -8538,7 +8548,7 @@
         <v>77</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>103</v>
